--- a/color/comparison_color.xlsx
+++ b/color/comparison_color.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c3b4e3b2cf5740/Documents/GitHub/G/masks^Mpic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c3b4e3b2cf5740/Documents/GitHub/G/color/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="395" documentId="8_{E4594A22-AFE3-454B-A66C-71E7CD8BEF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{273CFAFB-B1EB-45AF-B01C-C612B3184CEA}"/>
+  <xr:revisionPtr revIDLastSave="415" documentId="8_{E4594A22-AFE3-454B-A66C-71E7CD8BEF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD2433A1-2B63-4DB5-91FF-F05C015596C1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8DDA7121-79A4-441C-B316-0237A835ED06}"/>
   </bookViews>
@@ -404,9 +404,6 @@
     <t>PAT_719_1361_234</t>
   </si>
   <si>
-    <t>image id</t>
-  </si>
-  <si>
     <t>computer</t>
   </si>
   <si>
@@ -502,6 +499,9 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Image_ID</t>
   </si>
 </sst>
 </file>
@@ -894,48 +894,48 @@
   <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>135</v>
+      <c r="C1" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D1" t="s">
         <v>133</v>
       </c>
       <c r="E1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>131</v>
       </c>
-      <c r="I1" t="s">
-        <v>132</v>
-      </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -945,8 +945,8 @@
       <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>136</v>
+      <c r="C2" s="3">
+        <v>2</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
@@ -960,15 +960,15 @@
       <c r="G2" s="3">
         <v>2</v>
       </c>
-      <c r="H2" s="3">
-        <v>2</v>
+      <c r="H2" t="s">
+        <v>135</v>
       </c>
       <c r="I2" s="3">
-        <f>GEOMEAN(D2:H2)</f>
+        <f t="shared" ref="I2:I33" ca="1" si="0">GEOMEAN(E2:I2)</f>
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -978,8 +978,8 @@
       <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>136</v>
+      <c r="C3" s="3">
+        <v>2</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
@@ -993,14 +993,16 @@
       <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
-        <v>2</v>
+      <c r="H3" t="s">
+        <v>135</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I66" si="0">GEOMEAN(D3:H3)</f>
-        <v>2</v>
-      </c>
-      <c r="J3" s="2"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1009,27 +1011,27 @@
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>136</v>
+      <c r="C4" s="3">
+        <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3">
-        <v>3</v>
+      <c r="H4" t="s">
+        <v>135</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0476725110792193</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8171205928321397</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>126</v>
@@ -1042,8 +1044,8 @@
       <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>136</v>
+      <c r="C5" s="3">
+        <v>2</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -1057,14 +1059,16 @@
       <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="3">
-        <v>2</v>
+      <c r="H5" t="s">
+        <v>135</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J5" s="2"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1073,14 +1077,14 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>136</v>
+      <c r="C6" s="3">
+        <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -1088,16 +1092,14 @@
       <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="3">
-        <v>2</v>
+      <c r="H6" t="s">
+        <v>135</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7411011265922482</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>127</v>
-      </c>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1106,8 +1108,8 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>137</v>
+      <c r="C7" s="3">
+        <v>2</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
@@ -1116,17 +1118,17 @@
         <v>2</v>
       </c>
       <c r="F7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="3">
-        <v>1</v>
+      <c r="H7" t="s">
+        <v>136</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7411011265922482</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5874010519681994</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -1137,8 +1139,8 @@
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>136</v>
+      <c r="C8" s="3">
+        <v>1</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -1152,16 +1154,14 @@
       <c r="G8" s="3">
         <v>2</v>
       </c>
-      <c r="H8" s="3">
-        <v>1</v>
+      <c r="H8" t="s">
+        <v>135</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1486983549970351</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>128</v>
-      </c>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2599210498948732</v>
+      </c>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1170,27 +1170,27 @@
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>137</v>
+      <c r="C9" s="3">
+        <v>2</v>
       </c>
       <c r="D9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="3">
-        <v>1</v>
+      <c r="H9" t="s">
+        <v>136</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>1.8881750225898042</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1200,8 +1200,8 @@
       <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>137</v>
+      <c r="C10" s="3">
+        <v>1</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -1210,17 +1210,17 @@
         <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="3">
-        <v>2</v>
+      <c r="H10" t="s">
+        <v>136</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3195079107728942</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1230,27 +1230,27 @@
       <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>136</v>
+      <c r="C11" s="3">
+        <v>2</v>
       </c>
       <c r="D11" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
       </c>
-      <c r="H11" s="3">
-        <v>3</v>
+      <c r="H11" t="s">
+        <v>135</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>2.3521580450493471</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1260,8 +1260,8 @@
       <c r="B12" s="4">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>137</v>
+      <c r="C12" s="3">
+        <v>2</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -1275,11 +1275,11 @@
       <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="3">
-        <v>2</v>
+      <c r="H12" t="s">
+        <v>136</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1290,27 +1290,27 @@
       <c r="B13" s="4">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>136</v>
+      <c r="C13" s="3">
+        <v>2.5</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="H13" s="3">
-        <v>2</v>
+      <c r="H13" t="s">
+        <v>135</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4595094858493631</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1320,14 +1320,14 @@
       <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>136</v>
+      <c r="C14" s="3">
+        <v>2</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3">
         <v>2</v>
@@ -1335,12 +1335,12 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="3">
-        <v>2</v>
+      <c r="H14" t="s">
+        <v>135</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="0"/>
-        <v>1.515716566510398</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2599210498948732</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1350,8 +1350,8 @@
       <c r="B15" s="4">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>136</v>
+      <c r="C15" s="3">
+        <v>1</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -1365,12 +1365,12 @@
       <c r="G15" s="3">
         <v>2</v>
       </c>
-      <c r="H15" s="3">
-        <v>1</v>
+      <c r="H15" t="s">
+        <v>135</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="0"/>
-        <v>1.515716566510398</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1380,8 +1380,8 @@
       <c r="B16" s="4">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
-        <v>137</v>
+      <c r="C16" s="3">
+        <v>2</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
@@ -1390,17 +1390,17 @@
         <v>2</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="3">
         <v>3</v>
       </c>
-      <c r="H16" s="3">
-        <v>3</v>
+      <c r="H16" t="s">
+        <v>136</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="0"/>
-        <v>2.3521580450493471</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6207413942088964</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1410,8 +1410,8 @@
       <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>136</v>
+      <c r="C17" s="3">
+        <v>1</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -1425,11 +1425,11 @@
       <c r="G17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="3">
-        <v>1</v>
+      <c r="H17" t="s">
+        <v>135</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1440,8 +1440,8 @@
       <c r="B18" s="4">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>137</v>
+      <c r="C18" s="3">
+        <v>3</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
@@ -1455,12 +1455,12 @@
       <c r="G18" s="3">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
-        <v>3</v>
+      <c r="H18" t="s">
+        <v>136</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="0"/>
-        <v>3.177671523146437</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3019272488946267</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1470,14 +1470,14 @@
       <c r="B19" s="4">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>136</v>
+      <c r="C19" s="3">
+        <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -1485,12 +1485,12 @@
       <c r="G19" s="3">
         <v>3</v>
       </c>
-      <c r="H19" s="3">
-        <v>2</v>
+      <c r="H19" t="s">
+        <v>135</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="0"/>
-        <v>2.3521580450493471</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1500,8 +1500,8 @@
       <c r="B20" s="4">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
-        <v>136</v>
+      <c r="C20" s="3">
+        <v>2</v>
       </c>
       <c r="D20" s="3">
         <v>2</v>
@@ -1515,12 +1515,12 @@
       <c r="G20" s="3">
         <v>3</v>
       </c>
-      <c r="H20" s="3">
-        <v>2</v>
+      <c r="H20" t="s">
+        <v>135</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1689435423953971</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1530,27 +1530,27 @@
       <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
-        <v>137</v>
+      <c r="C21" s="3">
+        <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3">
         <v>2</v>
       </c>
-      <c r="H21" s="3">
-        <v>1</v>
+      <c r="H21" t="s">
+        <v>136</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="0"/>
-        <v>1.515716566510398</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1560,8 +1560,8 @@
       <c r="B22" s="4">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
-        <v>136</v>
+      <c r="C22" s="3">
+        <v>2.5</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
@@ -1570,17 +1570,17 @@
         <v>2</v>
       </c>
       <c r="F22" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G22" s="3">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>1</v>
+      <c r="H22" t="s">
+        <v>135</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="0"/>
-        <v>1.97435048583482</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8171205928321397</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1590,8 +1590,8 @@
       <c r="B23" s="4">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
-        <v>136</v>
+      <c r="C23" s="3">
+        <v>2</v>
       </c>
       <c r="D23" s="3">
         <v>2</v>
@@ -1605,11 +1605,11 @@
       <c r="G23" s="3">
         <v>2</v>
       </c>
-      <c r="H23" s="3">
-        <v>2</v>
+      <c r="H23" t="s">
+        <v>135</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
-        <v>136</v>
+      <c r="C24" s="3">
+        <v>1</v>
       </c>
       <c r="D24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="3">
         <v>2</v>
       </c>
-      <c r="H24" s="3">
-        <v>2</v>
+      <c r="H24" t="s">
+        <v>135</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="0"/>
-        <v>1.515716566510398</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1650,8 +1650,8 @@
       <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
-        <v>136</v>
+      <c r="C25" s="3">
+        <v>3</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
@@ -1660,17 +1660,17 @@
         <v>2</v>
       </c>
       <c r="F25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" s="3">
         <v>3</v>
       </c>
-      <c r="H25" s="3">
-        <v>2</v>
+      <c r="H25" t="s">
+        <v>135</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="0"/>
-        <v>2.3521580450493471</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1680,14 +1680,14 @@
       <c r="B26" s="4">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
-        <v>137</v>
+      <c r="C26" s="3">
+        <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -1695,12 +1695,12 @@
       <c r="G26" s="3">
         <v>2</v>
       </c>
-      <c r="H26" s="3">
-        <v>3</v>
+      <c r="H26" t="s">
+        <v>136</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5508490012515819</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1710,27 +1710,27 @@
       <c r="B27" s="4">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
-        <v>137</v>
+      <c r="C27" s="3">
+        <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="3">
         <v>2</v>
       </c>
-      <c r="H27" s="3">
-        <v>2</v>
+      <c r="H27" t="s">
+        <v>136</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="0"/>
-        <v>1.515716566510398</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1740,8 +1740,8 @@
       <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
-        <v>136</v>
+      <c r="C28" s="3">
+        <v>2</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -1750,17 +1750,17 @@
         <v>1</v>
       </c>
       <c r="F28" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="3">
         <v>2</v>
       </c>
-      <c r="H28" s="3">
-        <v>1</v>
+      <c r="H28" t="s">
+        <v>135</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3195079107728942</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2599210498948732</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1770,27 +1770,27 @@
       <c r="B29" s="4">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
-        <v>136</v>
+      <c r="C29" s="3">
+        <v>2</v>
       </c>
       <c r="D29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
-        <v>1</v>
+      <c r="H29" t="s">
+        <v>135</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6437518295172258</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8171205928321397</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1800,8 +1800,8 @@
       <c r="B30" s="4">
         <v>2</v>
       </c>
-      <c r="C30" t="s">
-        <v>137</v>
+      <c r="C30" s="3">
+        <v>3</v>
       </c>
       <c r="D30" s="3">
         <v>2</v>
@@ -1810,17 +1810,17 @@
         <v>2</v>
       </c>
       <c r="F30" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" s="3">
         <v>2</v>
       </c>
-      <c r="H30" s="3">
-        <v>2</v>
+      <c r="H30" t="s">
+        <v>136</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1689435423953971</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1830,8 +1830,8 @@
       <c r="B31" s="4">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
-        <v>136</v>
+      <c r="C31" s="3">
+        <v>1</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -1845,12 +1845,12 @@
       <c r="G31" s="3">
         <v>2</v>
       </c>
-      <c r="H31" s="3">
-        <v>1</v>
+      <c r="H31" t="s">
+        <v>135</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1486983549970351</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2599210498948732</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1860,8 +1860,8 @@
       <c r="B32" s="4">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
-        <v>137</v>
+      <c r="C32" s="3">
+        <v>2</v>
       </c>
       <c r="D32" s="3">
         <v>2</v>
@@ -1875,12 +1875,12 @@
       <c r="G32" s="3">
         <v>3</v>
       </c>
-      <c r="H32" s="3">
-        <v>2</v>
+      <c r="H32" t="s">
+        <v>136</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1689435423953971</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1890,8 +1890,8 @@
       <c r="B33" s="4">
         <v>2</v>
       </c>
-      <c r="C33" t="s">
-        <v>136</v>
+      <c r="C33" s="3">
+        <v>2.5</v>
       </c>
       <c r="D33" s="3">
         <v>2</v>
@@ -1900,17 +1900,17 @@
         <v>2</v>
       </c>
       <c r="F33" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G33" s="3">
         <v>3</v>
       </c>
-      <c r="H33" s="3">
-        <v>2</v>
+      <c r="H33" t="s">
+        <v>135</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="0"/>
-        <v>2.2679331552660544</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1920,8 +1920,8 @@
       <c r="B34" s="4">
         <v>2</v>
       </c>
-      <c r="C34" t="s">
-        <v>137</v>
+      <c r="C34" s="3">
+        <v>3</v>
       </c>
       <c r="D34" s="3">
         <v>2</v>
@@ -1935,12 +1935,12 @@
       <c r="G34" s="3">
         <v>4</v>
       </c>
-      <c r="H34" s="3">
-        <v>3</v>
+      <c r="H34" t="s">
+        <v>136</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="0"/>
-        <v>2.7019200770412271</v>
+        <f t="shared" ref="I34:I65" ca="1" si="1">GEOMEAN(E34:I34)</f>
+        <v>2.8844991406148166</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1950,14 +1950,14 @@
       <c r="B35" s="4">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
-        <v>137</v>
+      <c r="C35" s="3">
+        <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" s="3">
         <v>3</v>
@@ -1965,12 +1965,12 @@
       <c r="G35" s="3">
         <v>2</v>
       </c>
-      <c r="H35" s="3">
-        <v>3</v>
+      <c r="H35" t="s">
+        <v>136</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5508490012515819</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1980,27 +1980,27 @@
       <c r="B36" s="4">
         <v>2</v>
       </c>
-      <c r="C36" t="s">
-        <v>136</v>
+      <c r="C36" s="3">
+        <v>1.5</v>
       </c>
       <c r="D36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G36" s="3">
         <v>2</v>
       </c>
-      <c r="H36" s="3">
-        <v>2</v>
+      <c r="H36" t="s">
+        <v>135</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6437518295172258</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -2010,27 +2010,27 @@
       <c r="B37" s="4">
         <v>2</v>
       </c>
-      <c r="C37" t="s">
-        <v>136</v>
+      <c r="C37" s="3">
+        <v>1.5</v>
       </c>
       <c r="D37" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G37" s="3">
         <v>2</v>
       </c>
-      <c r="H37" s="3">
-        <v>2</v>
+      <c r="H37" t="s">
+        <v>135</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6437518295172258</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -2040,27 +2040,27 @@
       <c r="B38" s="4">
         <v>2</v>
       </c>
-      <c r="C38" t="s">
-        <v>136</v>
+      <c r="C38" s="3">
+        <v>1</v>
       </c>
       <c r="D38" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="3">
         <v>3</v>
       </c>
-      <c r="H38" s="3">
-        <v>2</v>
+      <c r="H38" t="s">
+        <v>135</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6437518295172258</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2070,14 +2070,14 @@
       <c r="B39" s="4">
         <v>2</v>
       </c>
-      <c r="C39" t="s">
-        <v>136</v>
+      <c r="C39" s="3">
+        <v>2</v>
       </c>
       <c r="D39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="3">
         <v>2</v>
@@ -2085,12 +2085,12 @@
       <c r="G39" s="3">
         <v>3</v>
       </c>
-      <c r="H39" s="3">
-        <v>2</v>
+      <c r="H39" t="s">
+        <v>135</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="0"/>
-        <v>1.8881750225898042</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -2100,27 +2100,27 @@
       <c r="B40" s="4">
         <v>2</v>
       </c>
-      <c r="C40" t="s">
-        <v>136</v>
+      <c r="C40" s="3">
+        <v>1.5</v>
       </c>
       <c r="D40" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G40" s="3">
         <v>3</v>
       </c>
-      <c r="H40" s="3">
-        <v>1</v>
+      <c r="H40" t="s">
+        <v>135</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5518455739153598</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.8171205928321397</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2130,27 +2130,27 @@
       <c r="B41" s="4">
         <v>3</v>
       </c>
-      <c r="C41" t="s">
-        <v>136</v>
+      <c r="C41" s="3">
+        <v>2</v>
       </c>
       <c r="D41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" s="3">
         <v>3</v>
       </c>
-      <c r="H41" s="3">
-        <v>3</v>
+      <c r="H41" t="s">
+        <v>135</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5508490012515819</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6207413942088964</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -2160,27 +2160,27 @@
       <c r="B42" s="4">
         <v>2</v>
       </c>
-      <c r="C42" t="s">
-        <v>136</v>
+      <c r="C42" s="3">
+        <v>1.5</v>
       </c>
       <c r="D42" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G42" s="3">
         <v>2</v>
       </c>
-      <c r="H42" s="3">
-        <v>2</v>
+      <c r="H42" t="s">
+        <v>135</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6437518295172258</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2190,14 +2190,14 @@
       <c r="B43" s="4">
         <v>2</v>
       </c>
-      <c r="C43" t="s">
-        <v>137</v>
+      <c r="C43" s="3">
+        <v>3</v>
       </c>
       <c r="D43" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" s="3">
         <v>3</v>
@@ -2205,12 +2205,12 @@
       <c r="G43" s="3">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
-        <v>3</v>
+      <c r="H43" t="s">
+        <v>136</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="0"/>
-        <v>2.7663237344451832</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6207413942088964</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2220,8 +2220,8 @@
       <c r="B44" s="4">
         <v>2</v>
       </c>
-      <c r="C44" t="s">
-        <v>136</v>
+      <c r="C44" s="3">
+        <v>2</v>
       </c>
       <c r="D44" s="3">
         <v>2</v>
@@ -2235,11 +2235,11 @@
       <c r="G44" s="3">
         <v>2</v>
       </c>
-      <c r="H44" s="3">
-        <v>2</v>
+      <c r="H44" t="s">
+        <v>135</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2250,8 +2250,8 @@
       <c r="B45" s="4">
         <v>2</v>
       </c>
-      <c r="C45" t="s">
-        <v>137</v>
+      <c r="C45" s="3">
+        <v>1.5</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -2260,17 +2260,17 @@
         <v>1</v>
       </c>
       <c r="F45" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
       </c>
-      <c r="H45" s="3">
-        <v>1</v>
+      <c r="H45" t="s">
+        <v>136</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0844717711976986</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -2280,8 +2280,8 @@
       <c r="B46" s="4">
         <v>1</v>
       </c>
-      <c r="C46" t="s">
-        <v>137</v>
+      <c r="C46" s="3">
+        <v>1.5</v>
       </c>
       <c r="D46" s="3">
         <v>2</v>
@@ -2290,17 +2290,17 @@
         <v>2</v>
       </c>
       <c r="F46" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G46" s="3">
         <v>2</v>
       </c>
-      <c r="H46" s="3">
-        <v>1</v>
+      <c r="H46" t="s">
+        <v>136</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6437518295172258</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -2310,8 +2310,8 @@
       <c r="B47" s="4">
         <v>1</v>
       </c>
-      <c r="C47" t="s">
-        <v>137</v>
+      <c r="C47" s="3">
+        <v>2.5</v>
       </c>
       <c r="D47" s="3">
         <v>2</v>
@@ -2320,17 +2320,17 @@
         <v>2</v>
       </c>
       <c r="F47" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G47" s="3">
         <v>2</v>
       </c>
-      <c r="H47" s="3">
-        <v>2</v>
+      <c r="H47" t="s">
+        <v>136</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0912791051825463</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -2340,27 +2340,27 @@
       <c r="B48" s="4">
         <v>3</v>
       </c>
-      <c r="C48" t="s">
-        <v>136</v>
+      <c r="C48" s="3">
+        <v>3.5</v>
       </c>
       <c r="D48" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" s="3">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G48" s="3">
         <v>3</v>
       </c>
-      <c r="H48" s="3">
-        <v>3</v>
+      <c r="H48" t="s">
+        <v>135</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="0"/>
-        <v>3.2771653924211188</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -2370,8 +2370,8 @@
       <c r="B49" s="4">
         <v>2</v>
       </c>
-      <c r="C49" t="s">
-        <v>137</v>
+      <c r="C49" s="3">
+        <v>1</v>
       </c>
       <c r="D49" s="3">
         <v>2</v>
@@ -2380,17 +2380,17 @@
         <v>2</v>
       </c>
       <c r="F49" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
       </c>
-      <c r="H49" s="3">
-        <v>2</v>
+      <c r="H49" t="s">
+        <v>136</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="0"/>
-        <v>1.515716566510398</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -2400,8 +2400,8 @@
       <c r="B50" s="4">
         <v>2</v>
       </c>
-      <c r="C50" t="s">
-        <v>136</v>
+      <c r="C50" s="3">
+        <v>2</v>
       </c>
       <c r="D50" s="3">
         <v>2</v>
@@ -2415,11 +2415,11 @@
       <c r="G50" s="3">
         <v>2</v>
       </c>
-      <c r="H50" s="3">
-        <v>2</v>
+      <c r="H50" t="s">
+        <v>135</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2430,8 +2430,8 @@
       <c r="B51" s="4">
         <v>2</v>
       </c>
-      <c r="C51" t="s">
-        <v>136</v>
+      <c r="C51" s="3">
+        <v>2</v>
       </c>
       <c r="D51" s="3">
         <v>2</v>
@@ -2445,12 +2445,12 @@
       <c r="G51" s="3">
         <v>3</v>
       </c>
-      <c r="H51" s="3">
-        <v>2</v>
+      <c r="H51" t="s">
+        <v>135</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1689435423953971</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2460,27 +2460,27 @@
       <c r="B52" s="4">
         <v>2</v>
       </c>
-      <c r="C52" t="s">
-        <v>136</v>
+      <c r="C52" s="3">
+        <v>1.5</v>
       </c>
       <c r="D52" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G52" s="3">
         <v>2</v>
       </c>
-      <c r="H52" s="3">
-        <v>2</v>
+      <c r="H52" t="s">
+        <v>135</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6437518295172258</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -2490,8 +2490,8 @@
       <c r="B53" s="4">
         <v>2</v>
       </c>
-      <c r="C53" t="s">
-        <v>137</v>
+      <c r="C53" s="3">
+        <v>2</v>
       </c>
       <c r="D53" s="3">
         <v>3</v>
@@ -2505,12 +2505,12 @@
       <c r="G53" s="3">
         <v>3</v>
       </c>
-      <c r="H53" s="3">
-        <v>2</v>
+      <c r="H53" t="s">
+        <v>136</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5508490012515819</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6207413942088964</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -2520,27 +2520,27 @@
       <c r="B54" s="4">
         <v>2</v>
       </c>
-      <c r="C54" t="s">
-        <v>137</v>
+      <c r="C54" s="3">
+        <v>1.5</v>
       </c>
       <c r="D54" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G54" s="3">
         <v>2</v>
       </c>
-      <c r="H54" s="3">
-        <v>1</v>
+      <c r="H54" t="s">
+        <v>136</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="0"/>
-        <v>1.4309690811052556</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2550,27 +2550,27 @@
       <c r="B55" s="4">
         <v>2</v>
       </c>
-      <c r="C55" t="s">
-        <v>136</v>
+      <c r="C55" s="3">
+        <v>2.5</v>
       </c>
       <c r="D55" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G55" s="3">
         <v>3</v>
       </c>
-      <c r="H55" s="3">
-        <v>2</v>
+      <c r="H55" t="s">
+        <v>135</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4595094858493631</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -2580,8 +2580,8 @@
       <c r="B56" s="4">
         <v>2</v>
       </c>
-      <c r="C56" t="s">
-        <v>136</v>
+      <c r="C56" s="3">
+        <v>2</v>
       </c>
       <c r="D56" s="3">
         <v>2</v>
@@ -2595,11 +2595,11 @@
       <c r="G56" s="3">
         <v>2</v>
       </c>
-      <c r="H56" s="3">
-        <v>2</v>
+      <c r="H56" t="s">
+        <v>135</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2610,8 +2610,8 @@
       <c r="B57" s="4">
         <v>2</v>
       </c>
-      <c r="C57" t="s">
-        <v>136</v>
+      <c r="C57" s="3">
+        <v>2</v>
       </c>
       <c r="D57" s="3">
         <v>2</v>
@@ -2625,12 +2625,12 @@
       <c r="G57" s="3">
         <v>3</v>
       </c>
-      <c r="H57" s="3">
-        <v>2</v>
+      <c r="H57" t="s">
+        <v>135</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1689435423953971</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -2640,8 +2640,8 @@
       <c r="B58" s="4">
         <v>2</v>
       </c>
-      <c r="C58" t="s">
-        <v>136</v>
+      <c r="C58" s="3">
+        <v>1.5</v>
       </c>
       <c r="D58" s="3">
         <v>2</v>
@@ -2650,17 +2650,17 @@
         <v>2</v>
       </c>
       <c r="F58" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G58" s="3">
         <v>2</v>
       </c>
-      <c r="H58" s="3">
-        <v>2</v>
+      <c r="H58" t="s">
+        <v>135</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="0"/>
-        <v>1.8881750225898042</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -2670,14 +2670,14 @@
       <c r="B59" s="4">
         <v>2</v>
       </c>
-      <c r="C59" t="s">
-        <v>137</v>
+      <c r="C59" s="3">
+        <v>3</v>
       </c>
       <c r="D59" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E59" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" s="3">
         <v>3</v>
@@ -2685,12 +2685,12 @@
       <c r="G59" s="3">
         <v>3</v>
       </c>
-      <c r="H59" s="3">
-        <v>3</v>
+      <c r="H59" t="s">
+        <v>136</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="0"/>
-        <v>2.9301560515835217</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6207413942088964</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -2700,27 +2700,27 @@
       <c r="B60" s="4">
         <v>2</v>
       </c>
-      <c r="C60" t="s">
-        <v>136</v>
+      <c r="C60" s="3">
+        <v>2.5</v>
       </c>
       <c r="D60" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G60" s="3">
         <v>3</v>
       </c>
-      <c r="H60" s="3">
-        <v>2</v>
+      <c r="H60" t="s">
+        <v>135</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4595094858493631</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -2730,14 +2730,14 @@
       <c r="B61" s="4">
         <v>2</v>
       </c>
-      <c r="C61" t="s">
-        <v>136</v>
+      <c r="C61" s="3">
+        <v>2</v>
       </c>
       <c r="D61" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" s="3">
         <v>2</v>
@@ -2745,12 +2745,12 @@
       <c r="G61" s="3">
         <v>2</v>
       </c>
-      <c r="H61" s="3">
-        <v>2</v>
+      <c r="H61" t="s">
+        <v>135</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1689435423953971</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -2760,8 +2760,8 @@
       <c r="B62" s="4">
         <v>2</v>
       </c>
-      <c r="C62" t="s">
-        <v>137</v>
+      <c r="C62" s="3">
+        <v>3</v>
       </c>
       <c r="D62" s="3">
         <v>3</v>
@@ -2770,17 +2770,17 @@
         <v>3</v>
       </c>
       <c r="F62" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G62" s="3">
         <v>3</v>
       </c>
-      <c r="H62" s="3">
-        <v>2</v>
+      <c r="H62" t="s">
+        <v>136</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="0"/>
-        <v>2.7663237344451832</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6207413942088964</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -2790,14 +2790,14 @@
       <c r="B63" s="4">
         <v>2</v>
       </c>
-      <c r="C63" t="s">
-        <v>137</v>
+      <c r="C63" s="3">
+        <v>1</v>
       </c>
       <c r="D63" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="3">
         <v>1</v>
@@ -2805,12 +2805,12 @@
       <c r="G63" s="3">
         <v>1</v>
       </c>
-      <c r="H63" s="3">
-        <v>1</v>
+      <c r="H63" t="s">
+        <v>136</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1486983549970351</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2599210498948732</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -2820,8 +2820,8 @@
       <c r="B64" s="4">
         <v>1</v>
       </c>
-      <c r="C64" t="s">
-        <v>137</v>
+      <c r="C64" s="3">
+        <v>2</v>
       </c>
       <c r="D64" s="3">
         <v>2</v>
@@ -2835,12 +2835,12 @@
       <c r="G64" s="3">
         <v>3</v>
       </c>
-      <c r="H64" s="3">
-        <v>2</v>
+      <c r="H64" t="s">
+        <v>136</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1689435423953971</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -2850,8 +2850,8 @@
       <c r="B65" s="4">
         <v>2</v>
       </c>
-      <c r="C65" t="s">
-        <v>136</v>
+      <c r="C65" s="3">
+        <v>2.5</v>
       </c>
       <c r="D65" s="3">
         <v>2</v>
@@ -2860,17 +2860,17 @@
         <v>2</v>
       </c>
       <c r="F65" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G65" s="3">
         <v>3</v>
       </c>
-      <c r="H65" s="3">
-        <v>2</v>
+      <c r="H65" t="s">
+        <v>135</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="0"/>
-        <v>2.2679331552660544</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -2880,8 +2880,8 @@
       <c r="B66" s="4">
         <v>1</v>
       </c>
-      <c r="C66" t="s">
-        <v>136</v>
+      <c r="C66" s="3">
+        <v>1</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
@@ -2895,12 +2895,12 @@
       <c r="G66" s="3">
         <v>2</v>
       </c>
-      <c r="H66" s="3">
-        <v>1</v>
+      <c r="H66" t="s">
+        <v>135</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1486983549970351</v>
+        <f t="shared" ref="I66:I97" ca="1" si="2">GEOMEAN(E66:I66)</f>
+        <v>1.2599210498948732</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -2910,8 +2910,8 @@
       <c r="B67" s="4">
         <v>2</v>
       </c>
-      <c r="C67" t="s">
-        <v>136</v>
+      <c r="C67" s="3">
+        <v>2</v>
       </c>
       <c r="D67" s="3">
         <v>2</v>
@@ -2925,12 +2925,12 @@
       <c r="G67" s="3">
         <v>3</v>
       </c>
-      <c r="H67" s="3">
-        <v>2</v>
+      <c r="H67" t="s">
+        <v>135</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" ref="I67:I123" si="1">GEOMEAN(D67:H67)</f>
-        <v>2.1689435423953971</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -2940,27 +2940,27 @@
       <c r="B68" s="4">
         <v>2</v>
       </c>
-      <c r="C68" t="s">
-        <v>137</v>
+      <c r="C68" s="3">
+        <v>1</v>
       </c>
       <c r="D68" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" s="3">
         <v>1</v>
       </c>
-      <c r="H68" s="3">
-        <v>2</v>
+      <c r="H68" t="s">
+        <v>136</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3195079107728942</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2599210498948732</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -2970,27 +2970,27 @@
       <c r="B69" s="4">
         <v>2</v>
       </c>
-      <c r="C69" t="s">
-        <v>136</v>
+      <c r="C69" s="3">
+        <v>1</v>
       </c>
       <c r="D69" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" s="3">
         <v>2</v>
       </c>
-      <c r="H69" s="3">
-        <v>2</v>
+      <c r="H69" t="s">
+        <v>135</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="1"/>
-        <v>1.515716566510398</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -3000,14 +3000,14 @@
       <c r="B70" s="4">
         <v>2</v>
       </c>
-      <c r="C70" t="s">
-        <v>137</v>
+      <c r="C70" s="3">
+        <v>1</v>
       </c>
       <c r="D70" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="3">
         <v>1</v>
@@ -3015,12 +3015,12 @@
       <c r="G70" s="3">
         <v>1</v>
       </c>
-      <c r="H70" s="3">
-        <v>1</v>
+      <c r="H70" t="s">
+        <v>136</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="1"/>
-        <v>1.1486983549970351</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2599210498948732</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -3030,8 +3030,8 @@
       <c r="B71" s="4">
         <v>2</v>
       </c>
-      <c r="C71" t="s">
-        <v>137</v>
+      <c r="C71" s="3">
+        <v>1</v>
       </c>
       <c r="D71" s="3">
         <v>2</v>
@@ -3045,12 +3045,12 @@
       <c r="G71" s="3">
         <v>1</v>
       </c>
-      <c r="H71" s="3">
-        <v>1</v>
+      <c r="H71" t="s">
+        <v>136</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3195079107728942</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2599210498948732</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -3060,8 +3060,8 @@
       <c r="B72" s="4">
         <v>2</v>
       </c>
-      <c r="C72" t="s">
-        <v>136</v>
+      <c r="C72" s="3">
+        <v>2</v>
       </c>
       <c r="D72" s="3">
         <v>2</v>
@@ -3075,11 +3075,11 @@
       <c r="G72" s="3">
         <v>2</v>
       </c>
-      <c r="H72" s="3">
-        <v>2</v>
+      <c r="H72" t="s">
+        <v>135</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3090,8 +3090,8 @@
       <c r="B73" s="4">
         <v>2</v>
       </c>
-      <c r="C73" t="s">
-        <v>136</v>
+      <c r="C73" s="3">
+        <v>1.5</v>
       </c>
       <c r="D73" s="3">
         <v>2</v>
@@ -3100,17 +3100,17 @@
         <v>2</v>
       </c>
       <c r="F73" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
       </c>
-      <c r="H73" s="3">
-        <v>2</v>
+      <c r="H73" t="s">
+        <v>135</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="1"/>
-        <v>1.6437518295172258</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -3120,27 +3120,27 @@
       <c r="B74" s="4">
         <v>2</v>
       </c>
-      <c r="C74" t="s">
-        <v>136</v>
+      <c r="C74" s="3">
+        <v>1</v>
       </c>
       <c r="D74" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" s="3">
         <v>2</v>
       </c>
-      <c r="H74" s="3">
-        <v>2</v>
+      <c r="H74" t="s">
+        <v>135</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="1"/>
-        <v>1.515716566510398</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -3150,8 +3150,8 @@
       <c r="B75" s="4">
         <v>2</v>
       </c>
-      <c r="C75" t="s">
-        <v>136</v>
+      <c r="C75" s="3">
+        <v>2.5</v>
       </c>
       <c r="D75" s="3">
         <v>2</v>
@@ -3160,17 +3160,17 @@
         <v>2</v>
       </c>
       <c r="F75" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G75" s="3">
         <v>2</v>
       </c>
-      <c r="H75" s="3">
-        <v>2</v>
+      <c r="H75" t="s">
+        <v>135</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="1"/>
-        <v>2.0912791051825463</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -3180,8 +3180,8 @@
       <c r="B76" s="4">
         <v>2</v>
       </c>
-      <c r="C76" t="s">
-        <v>136</v>
+      <c r="C76" s="3">
+        <v>1</v>
       </c>
       <c r="D76" s="3">
         <v>2</v>
@@ -3190,17 +3190,17 @@
         <v>2</v>
       </c>
       <c r="F76" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" s="3">
         <v>1</v>
       </c>
-      <c r="H76" s="3">
-        <v>2</v>
+      <c r="H76" t="s">
+        <v>135</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="1"/>
-        <v>1.515716566510398</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -3210,8 +3210,8 @@
       <c r="B77" s="4">
         <v>2</v>
       </c>
-      <c r="C77" t="s">
-        <v>137</v>
+      <c r="C77" s="3">
+        <v>1</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
@@ -3225,12 +3225,12 @@
       <c r="G77" s="3">
         <v>2</v>
       </c>
-      <c r="H77" s="3">
-        <v>1</v>
+      <c r="H77" t="s">
+        <v>136</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="1"/>
-        <v>1.1486983549970351</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2599210498948732</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -3240,8 +3240,8 @@
       <c r="B78" s="4">
         <v>1</v>
       </c>
-      <c r="C78" t="s">
-        <v>137</v>
+      <c r="C78" s="3">
+        <v>1</v>
       </c>
       <c r="D78" s="3">
         <v>2</v>
@@ -3250,17 +3250,17 @@
         <v>2</v>
       </c>
       <c r="F78" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" s="3">
         <v>1</v>
       </c>
-      <c r="H78" s="3">
-        <v>2</v>
+      <c r="H78" t="s">
+        <v>136</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" si="1"/>
-        <v>1.515716566510398</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -3270,8 +3270,8 @@
       <c r="B79" s="4">
         <v>2</v>
       </c>
-      <c r="C79" t="s">
-        <v>136</v>
+      <c r="C79" s="3">
+        <v>1.5</v>
       </c>
       <c r="D79" s="3">
         <v>2</v>
@@ -3280,17 +3280,17 @@
         <v>2</v>
       </c>
       <c r="F79" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G79" s="3">
         <v>2</v>
       </c>
-      <c r="H79" s="3">
-        <v>2</v>
+      <c r="H79" t="s">
+        <v>135</v>
       </c>
       <c r="I79" s="3">
-        <f t="shared" si="1"/>
-        <v>1.8881750225898042</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -3300,8 +3300,8 @@
       <c r="B80" s="4">
         <v>2</v>
       </c>
-      <c r="C80" t="s">
-        <v>136</v>
+      <c r="C80" s="3">
+        <v>2.5</v>
       </c>
       <c r="D80" s="3">
         <v>2</v>
@@ -3310,17 +3310,17 @@
         <v>2</v>
       </c>
       <c r="F80" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G80" s="3">
         <v>2</v>
       </c>
-      <c r="H80" s="3">
-        <v>2</v>
+      <c r="H80" t="s">
+        <v>135</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="1"/>
-        <v>2.0912791051825463</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -3330,27 +3330,27 @@
       <c r="B81" s="4">
         <v>2</v>
       </c>
-      <c r="C81" t="s">
-        <v>136</v>
+      <c r="C81" s="3">
+        <v>1.5</v>
       </c>
       <c r="D81" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G81" s="3">
         <v>2</v>
       </c>
-      <c r="H81" s="3">
-        <v>2</v>
+      <c r="H81" t="s">
+        <v>135</v>
       </c>
       <c r="I81" s="3">
-        <f t="shared" si="1"/>
-        <v>2.0476725110792193</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -3360,14 +3360,14 @@
       <c r="B82" s="4">
         <v>1</v>
       </c>
-      <c r="C82" t="s">
-        <v>136</v>
+      <c r="C82" s="3">
+        <v>1</v>
       </c>
       <c r="D82" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
@@ -3375,12 +3375,12 @@
       <c r="G82" s="3">
         <v>2</v>
       </c>
-      <c r="H82" s="3">
-        <v>1</v>
+      <c r="H82" t="s">
+        <v>135</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3195079107728942</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -3390,27 +3390,27 @@
       <c r="B83" s="4">
         <v>2</v>
       </c>
-      <c r="C83" t="s">
-        <v>137</v>
+      <c r="C83" s="3">
+        <v>2.5</v>
       </c>
       <c r="D83" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E83" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F83" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G83" s="3">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
-        <v>3</v>
+      <c r="H83" t="s">
+        <v>136</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="1"/>
-        <v>2.825234500494767</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6207413942088964</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -3420,8 +3420,8 @@
       <c r="B84" s="4">
         <v>2</v>
       </c>
-      <c r="C84" t="s">
-        <v>137</v>
+      <c r="C84" s="3">
+        <v>3</v>
       </c>
       <c r="D84" s="3">
         <v>3</v>
@@ -3430,17 +3430,17 @@
         <v>3</v>
       </c>
       <c r="F84" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G84" s="3">
         <v>3</v>
       </c>
-      <c r="H84" s="3">
-        <v>2</v>
+      <c r="H84" t="s">
+        <v>136</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="1"/>
-        <v>2.7663237344451832</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6207413942088964</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -3450,8 +3450,8 @@
       <c r="B85" s="4">
         <v>2</v>
       </c>
-      <c r="C85" t="s">
-        <v>137</v>
+      <c r="C85" s="3">
+        <v>3</v>
       </c>
       <c r="D85" s="3">
         <v>3</v>
@@ -3460,17 +3460,17 @@
         <v>3</v>
       </c>
       <c r="F85" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G85" s="3">
         <v>3</v>
       </c>
-      <c r="H85" s="3">
-        <v>2</v>
+      <c r="H85" t="s">
+        <v>136</v>
       </c>
       <c r="I85" s="3">
-        <f t="shared" si="1"/>
-        <v>2.7663237344451832</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6207413942088964</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -3480,14 +3480,14 @@
       <c r="B86" s="4">
         <v>2</v>
       </c>
-      <c r="C86" t="s">
-        <v>136</v>
+      <c r="C86" s="3">
+        <v>2</v>
       </c>
       <c r="D86" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" s="3">
         <v>2</v>
@@ -3495,12 +3495,12 @@
       <c r="G86" s="3">
         <v>2</v>
       </c>
-      <c r="H86" s="3">
-        <v>2</v>
+      <c r="H86" t="s">
+        <v>135</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="1"/>
-        <v>2.1689435423953971</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -3510,27 +3510,27 @@
       <c r="B87" s="4">
         <v>2</v>
       </c>
-      <c r="C87" t="s">
-        <v>137</v>
+      <c r="C87" s="3">
+        <v>2.5</v>
       </c>
       <c r="D87" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E87" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F87" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G87" s="3">
         <v>3</v>
       </c>
-      <c r="H87" s="3">
-        <v>2</v>
+      <c r="H87" t="s">
+        <v>136</v>
       </c>
       <c r="I87" s="3">
-        <f t="shared" si="1"/>
-        <v>2.6051710846973521</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -3540,8 +3540,8 @@
       <c r="B88" s="4">
         <v>1</v>
       </c>
-      <c r="C88" t="s">
-        <v>136</v>
+      <c r="C88" s="3">
+        <v>1</v>
       </c>
       <c r="D88" s="3">
         <v>1</v>
@@ -3555,12 +3555,12 @@
       <c r="G88" s="3">
         <v>2</v>
       </c>
-      <c r="H88" s="3">
-        <v>1</v>
+      <c r="H88" t="s">
+        <v>135</v>
       </c>
       <c r="I88" s="3">
-        <f t="shared" si="1"/>
-        <v>1.1486983549970351</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2599210498948732</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -3570,8 +3570,8 @@
       <c r="B89" s="4">
         <v>1</v>
       </c>
-      <c r="C89" t="s">
-        <v>136</v>
+      <c r="C89" s="3">
+        <v>1</v>
       </c>
       <c r="D89" s="3">
         <v>1</v>
@@ -3585,11 +3585,11 @@
       <c r="G89" s="3">
         <v>1</v>
       </c>
-      <c r="H89" s="3">
-        <v>1</v>
+      <c r="H89" t="s">
+        <v>135</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3600,14 +3600,14 @@
       <c r="B90" s="4">
         <v>2</v>
       </c>
-      <c r="C90" t="s">
-        <v>137</v>
+      <c r="C90" s="3">
+        <v>1</v>
       </c>
       <c r="D90" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F90" s="3">
         <v>1</v>
@@ -3615,12 +3615,12 @@
       <c r="G90" s="3">
         <v>2</v>
       </c>
-      <c r="H90" s="3">
-        <v>1</v>
+      <c r="H90" t="s">
+        <v>136</v>
       </c>
       <c r="I90" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3195079107728942</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -3630,27 +3630,27 @@
       <c r="B91" s="4">
         <v>1</v>
       </c>
-      <c r="C91" t="s">
-        <v>137</v>
+      <c r="C91" s="3">
+        <v>1</v>
       </c>
       <c r="D91" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91" s="3">
         <v>2</v>
       </c>
-      <c r="H91" s="3">
-        <v>2</v>
+      <c r="H91" t="s">
+        <v>136</v>
       </c>
       <c r="I91" s="3">
-        <f t="shared" si="1"/>
-        <v>1.515716566510398</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -3660,8 +3660,8 @@
       <c r="B92" s="4">
         <v>3</v>
       </c>
-      <c r="C92" t="s">
-        <v>136</v>
+      <c r="C92" s="3">
+        <v>3</v>
       </c>
       <c r="D92" s="3">
         <v>3</v>
@@ -3670,17 +3670,17 @@
         <v>3</v>
       </c>
       <c r="F92" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G92" s="3">
         <v>3</v>
       </c>
-      <c r="H92" s="3">
-        <v>2</v>
+      <c r="H92" t="s">
+        <v>135</v>
       </c>
       <c r="I92" s="3">
-        <f t="shared" si="1"/>
-        <v>2.7663237344451832</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6207413942088964</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -3690,8 +3690,8 @@
       <c r="B93" s="4">
         <v>1</v>
       </c>
-      <c r="C93" t="s">
-        <v>137</v>
+      <c r="C93" s="3">
+        <v>2</v>
       </c>
       <c r="D93" s="3">
         <v>2</v>
@@ -3705,11 +3705,11 @@
       <c r="G93" s="3">
         <v>2</v>
       </c>
-      <c r="H93" s="3">
-        <v>2</v>
+      <c r="H93" t="s">
+        <v>136</v>
       </c>
       <c r="I93" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3720,27 +3720,27 @@
       <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C94" t="s">
-        <v>137</v>
+      <c r="C94" s="3">
+        <v>1.5</v>
       </c>
       <c r="D94" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G94" s="3">
         <v>2</v>
       </c>
-      <c r="H94" s="3">
-        <v>1</v>
+      <c r="H94" t="s">
+        <v>136</v>
       </c>
       <c r="I94" s="3">
-        <f t="shared" si="1"/>
-        <v>1.4309690811052556</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -3750,8 +3750,8 @@
       <c r="B95" s="4">
         <v>2</v>
       </c>
-      <c r="C95" t="s">
-        <v>136</v>
+      <c r="C95" s="3">
+        <v>1.5</v>
       </c>
       <c r="D95" s="3">
         <v>2</v>
@@ -3760,17 +3760,17 @@
         <v>2</v>
       </c>
       <c r="F95" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G95" s="3">
         <v>2</v>
       </c>
-      <c r="H95" s="3">
-        <v>2</v>
+      <c r="H95" t="s">
+        <v>135</v>
       </c>
       <c r="I95" s="3">
-        <f t="shared" si="1"/>
-        <v>1.8881750225898042</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -3780,8 +3780,8 @@
       <c r="B96" s="4">
         <v>1</v>
       </c>
-      <c r="C96" t="s">
-        <v>137</v>
+      <c r="C96" s="3">
+        <v>2</v>
       </c>
       <c r="D96" s="3">
         <v>2</v>
@@ -3790,17 +3790,17 @@
         <v>2</v>
       </c>
       <c r="F96" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96" s="3">
         <v>3</v>
       </c>
-      <c r="H96" s="3">
-        <v>1</v>
+      <c r="H96" t="s">
+        <v>136</v>
       </c>
       <c r="I96" s="3">
-        <f t="shared" si="1"/>
-        <v>1.8881750225898042</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.8171205928321397</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -3810,27 +3810,27 @@
       <c r="B97" s="4">
         <v>1</v>
       </c>
-      <c r="C97" t="s">
-        <v>136</v>
+      <c r="C97" s="3">
+        <v>1.5</v>
       </c>
       <c r="D97" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E97" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G97" s="3">
         <v>2</v>
       </c>
-      <c r="H97" s="3">
-        <v>1</v>
+      <c r="H97" t="s">
+        <v>135</v>
       </c>
       <c r="I97" s="3">
-        <f t="shared" si="1"/>
-        <v>1.4309690811052556</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -3840,14 +3840,14 @@
       <c r="B98" s="4">
         <v>2</v>
       </c>
-      <c r="C98" t="s">
-        <v>136</v>
+      <c r="C98" s="3">
+        <v>2</v>
       </c>
       <c r="D98" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E98" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" s="3">
         <v>2</v>
@@ -3855,12 +3855,12 @@
       <c r="G98" s="3">
         <v>2</v>
       </c>
-      <c r="H98" s="3">
-        <v>2</v>
+      <c r="H98" t="s">
+        <v>135</v>
       </c>
       <c r="I98" s="3">
-        <f t="shared" si="1"/>
-        <v>2.1689435423953971</v>
+        <f t="shared" ref="I98:I123" ca="1" si="3">GEOMEAN(E98:I98)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -3870,14 +3870,14 @@
       <c r="B99" s="4">
         <v>2</v>
       </c>
-      <c r="C99" t="s">
-        <v>137</v>
+      <c r="C99" s="3">
+        <v>2</v>
       </c>
       <c r="D99" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E99" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" s="3">
         <v>2</v>
@@ -3885,12 +3885,12 @@
       <c r="G99" s="3">
         <v>3</v>
       </c>
-      <c r="H99" s="3">
-        <v>2</v>
+      <c r="H99" t="s">
+        <v>136</v>
       </c>
       <c r="I99" s="3">
-        <f t="shared" si="1"/>
-        <v>2.7019200770412271</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6207413942088964</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -3900,8 +3900,8 @@
       <c r="B100" s="4">
         <v>2</v>
       </c>
-      <c r="C100" t="s">
-        <v>136</v>
+      <c r="C100" s="3">
+        <v>1.5</v>
       </c>
       <c r="D100" s="3">
         <v>2</v>
@@ -3910,17 +3910,17 @@
         <v>2</v>
       </c>
       <c r="F100" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G100" s="3">
         <v>2</v>
       </c>
-      <c r="H100" s="3">
-        <v>2</v>
+      <c r="H100" t="s">
+        <v>135</v>
       </c>
       <c r="I100" s="3">
-        <f t="shared" si="1"/>
-        <v>1.8881750225898042</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -3930,8 +3930,8 @@
       <c r="B101" s="4">
         <v>2</v>
       </c>
-      <c r="C101" t="s">
-        <v>136</v>
+      <c r="C101" s="3">
+        <v>1</v>
       </c>
       <c r="D101" s="3">
         <v>2</v>
@@ -3940,17 +3940,17 @@
         <v>2</v>
       </c>
       <c r="F101" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" s="3">
         <v>2</v>
       </c>
-      <c r="H101" s="3">
-        <v>2</v>
+      <c r="H101" t="s">
+        <v>135</v>
       </c>
       <c r="I101" s="3">
-        <f t="shared" si="1"/>
-        <v>1.7411011265922482</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -3960,14 +3960,14 @@
       <c r="B102" s="4">
         <v>1</v>
       </c>
-      <c r="C102" t="s">
-        <v>136</v>
+      <c r="C102" s="3">
+        <v>1</v>
       </c>
       <c r="D102" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -3975,12 +3975,12 @@
       <c r="G102" s="3">
         <v>1</v>
       </c>
-      <c r="H102" s="3">
-        <v>1</v>
+      <c r="H102" t="s">
+        <v>135</v>
       </c>
       <c r="I102" s="3">
-        <f t="shared" si="1"/>
-        <v>1.1486983549970351</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2599210498948732</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -3990,8 +3990,8 @@
       <c r="B103" s="4">
         <v>1</v>
       </c>
-      <c r="C103" t="s">
-        <v>136</v>
+      <c r="C103" s="3">
+        <v>1.5</v>
       </c>
       <c r="D103" s="3">
         <v>1</v>
@@ -4000,17 +4000,17 @@
         <v>1</v>
       </c>
       <c r="F103" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G103" s="3">
         <v>2</v>
       </c>
-      <c r="H103" s="3">
-        <v>2</v>
+      <c r="H103" t="s">
+        <v>135</v>
       </c>
       <c r="I103" s="3">
-        <f t="shared" si="1"/>
-        <v>1.4309690811052556</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -4020,8 +4020,8 @@
       <c r="B104" s="4">
         <v>2</v>
       </c>
-      <c r="C104" t="s">
-        <v>137</v>
+      <c r="C104" s="3">
+        <v>1</v>
       </c>
       <c r="D104" s="3">
         <v>1</v>
@@ -4035,11 +4035,11 @@
       <c r="G104" s="3">
         <v>1</v>
       </c>
-      <c r="H104" s="3">
-        <v>1</v>
+      <c r="H104" t="s">
+        <v>136</v>
       </c>
       <c r="I104" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4050,27 +4050,27 @@
       <c r="B105" s="4">
         <v>1</v>
       </c>
-      <c r="C105" t="s">
-        <v>137</v>
+      <c r="C105" s="3">
+        <v>1.5</v>
       </c>
       <c r="D105" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F105" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G105" s="3">
         <v>2</v>
       </c>
-      <c r="H105" s="3">
-        <v>2</v>
+      <c r="H105" t="s">
+        <v>136</v>
       </c>
       <c r="I105" s="3">
-        <f t="shared" si="1"/>
-        <v>1.6437518295172258</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -4080,27 +4080,27 @@
       <c r="B106" s="4">
         <v>2</v>
       </c>
-      <c r="C106" t="s">
-        <v>136</v>
+      <c r="C106" s="3">
+        <v>1.5</v>
       </c>
       <c r="D106" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E106" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F106" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G106" s="3">
         <v>3</v>
       </c>
-      <c r="H106" s="3">
-        <v>2</v>
+      <c r="H106" t="s">
+        <v>135</v>
       </c>
       <c r="I106" s="3">
-        <f t="shared" si="1"/>
-        <v>2.22064303492292</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -4110,8 +4110,8 @@
       <c r="B107" s="4">
         <v>1</v>
       </c>
-      <c r="C107" t="s">
-        <v>136</v>
+      <c r="C107" s="3">
+        <v>1</v>
       </c>
       <c r="D107" s="3">
         <v>1</v>
@@ -4125,12 +4125,12 @@
       <c r="G107" s="3">
         <v>2</v>
       </c>
-      <c r="H107" s="3">
-        <v>1</v>
+      <c r="H107" t="s">
+        <v>135</v>
       </c>
       <c r="I107" s="3">
-        <f t="shared" si="1"/>
-        <v>1.1486983549970351</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2599210498948732</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -4140,8 +4140,8 @@
       <c r="B108" s="4">
         <v>1</v>
       </c>
-      <c r="C108" t="s">
-        <v>136</v>
+      <c r="C108" s="3">
+        <v>1</v>
       </c>
       <c r="D108" s="3">
         <v>1</v>
@@ -4155,12 +4155,12 @@
       <c r="G108" s="3">
         <v>2</v>
       </c>
-      <c r="H108" s="3">
-        <v>1</v>
+      <c r="H108" t="s">
+        <v>135</v>
       </c>
       <c r="I108" s="3">
-        <f t="shared" si="1"/>
-        <v>1.1486983549970351</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2599210498948732</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -4170,8 +4170,8 @@
       <c r="B109" s="4">
         <v>2</v>
       </c>
-      <c r="C109" t="s">
-        <v>136</v>
+      <c r="C109" s="3">
+        <v>1.5</v>
       </c>
       <c r="D109" s="3">
         <v>2</v>
@@ -4180,17 +4180,17 @@
         <v>2</v>
       </c>
       <c r="F109" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G109" s="3">
         <v>1</v>
       </c>
-      <c r="H109" s="3">
-        <v>2</v>
+      <c r="H109" t="s">
+        <v>135</v>
       </c>
       <c r="I109" s="3">
-        <f t="shared" si="1"/>
-        <v>1.6437518295172258</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -4200,14 +4200,14 @@
       <c r="B110" s="4">
         <v>2</v>
       </c>
-      <c r="C110" t="s">
-        <v>137</v>
+      <c r="C110" s="3">
+        <v>1</v>
       </c>
       <c r="D110" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -4215,12 +4215,12 @@
       <c r="G110" s="3">
         <v>2</v>
       </c>
-      <c r="H110" s="3">
-        <v>1</v>
+      <c r="H110" t="s">
+        <v>136</v>
       </c>
       <c r="I110" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3195079107728942</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -4230,27 +4230,27 @@
       <c r="B111" s="4">
         <v>2</v>
       </c>
-      <c r="C111" t="s">
-        <v>137</v>
+      <c r="C111" s="3">
+        <v>3</v>
       </c>
       <c r="D111" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E111" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F111" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G111" s="3">
         <v>3</v>
       </c>
-      <c r="H111" s="3">
-        <v>2</v>
+      <c r="H111" t="s">
+        <v>136</v>
       </c>
       <c r="I111" s="3">
-        <f t="shared" si="1"/>
-        <v>2.5508490012515819</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -4260,8 +4260,8 @@
       <c r="B112" s="4">
         <v>2</v>
       </c>
-      <c r="C112" t="s">
-        <v>136</v>
+      <c r="C112" s="3">
+        <v>2</v>
       </c>
       <c r="D112" s="3">
         <v>2</v>
@@ -4275,11 +4275,11 @@
       <c r="G112" s="3">
         <v>2</v>
       </c>
-      <c r="H112" s="3">
-        <v>2</v>
+      <c r="H112" t="s">
+        <v>135</v>
       </c>
       <c r="I112" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4290,27 +4290,27 @@
       <c r="B113" s="4">
         <v>2</v>
       </c>
-      <c r="C113" t="s">
-        <v>136</v>
+      <c r="C113" s="3">
+        <v>1.5</v>
       </c>
       <c r="D113" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G113" s="3">
         <v>2</v>
       </c>
-      <c r="H113" s="3">
-        <v>2</v>
+      <c r="H113" t="s">
+        <v>135</v>
       </c>
       <c r="I113" s="3">
-        <f t="shared" si="1"/>
-        <v>1.6437518295172258</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -4320,27 +4320,27 @@
       <c r="B114" s="4">
         <v>1</v>
       </c>
-      <c r="C114" t="s">
-        <v>136</v>
+      <c r="C114" s="3">
+        <v>1.5</v>
       </c>
       <c r="D114" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F114" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G114" s="3">
         <v>1</v>
       </c>
-      <c r="H114" s="3">
-        <v>2</v>
+      <c r="H114" t="s">
+        <v>135</v>
       </c>
       <c r="I114" s="3">
-        <f t="shared" si="1"/>
-        <v>1.4309690811052556</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2599210498948732</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -4350,8 +4350,8 @@
       <c r="B115" s="4">
         <v>2</v>
       </c>
-      <c r="C115" t="s">
-        <v>136</v>
+      <c r="C115" s="3">
+        <v>1.5</v>
       </c>
       <c r="D115" s="3">
         <v>2</v>
@@ -4360,17 +4360,17 @@
         <v>2</v>
       </c>
       <c r="F115" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G115" s="3">
         <v>2</v>
       </c>
-      <c r="H115" s="3">
-        <v>2</v>
+      <c r="H115" t="s">
+        <v>135</v>
       </c>
       <c r="I115" s="3">
-        <f t="shared" si="1"/>
-        <v>1.8881750225898042</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -4380,8 +4380,8 @@
       <c r="B116" s="4">
         <v>3</v>
       </c>
-      <c r="C116" t="s">
-        <v>137</v>
+      <c r="C116" s="3">
+        <v>1</v>
       </c>
       <c r="D116" s="3">
         <v>2</v>
@@ -4390,17 +4390,17 @@
         <v>2</v>
       </c>
       <c r="F116" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G116" s="3">
         <v>2</v>
       </c>
-      <c r="H116" s="3">
-        <v>2</v>
+      <c r="H116" t="s">
+        <v>136</v>
       </c>
       <c r="I116" s="3">
-        <f t="shared" si="1"/>
-        <v>1.7411011265922482</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -4410,27 +4410,27 @@
       <c r="B117" s="4">
         <v>1</v>
       </c>
-      <c r="C117" t="s">
-        <v>136</v>
+      <c r="C117" s="3">
+        <v>1.5</v>
       </c>
       <c r="D117" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G117" s="3">
         <v>1</v>
       </c>
-      <c r="H117" s="3">
-        <v>1</v>
+      <c r="H117" t="s">
+        <v>135</v>
       </c>
       <c r="I117" s="3">
-        <f t="shared" si="1"/>
-        <v>1.2457309396155174</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2599210498948732</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -4440,8 +4440,8 @@
       <c r="B118" s="4">
         <v>1</v>
       </c>
-      <c r="C118" t="s">
-        <v>136</v>
+      <c r="C118" s="3">
+        <v>1</v>
       </c>
       <c r="D118" s="3">
         <v>1</v>
@@ -4455,12 +4455,12 @@
       <c r="G118" s="3">
         <v>2</v>
       </c>
-      <c r="H118" s="3">
-        <v>1</v>
+      <c r="H118" t="s">
+        <v>135</v>
       </c>
       <c r="I118" s="3">
-        <f t="shared" si="1"/>
-        <v>1.1486983549970351</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2599210498948732</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -4470,8 +4470,8 @@
       <c r="B119" s="4">
         <v>2</v>
       </c>
-      <c r="C119" t="s">
-        <v>136</v>
+      <c r="C119" s="3">
+        <v>1.5</v>
       </c>
       <c r="D119" s="3">
         <v>2</v>
@@ -4480,17 +4480,17 @@
         <v>2</v>
       </c>
       <c r="F119" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G119" s="3">
         <v>1</v>
       </c>
-      <c r="H119" s="3">
-        <v>2</v>
+      <c r="H119" t="s">
+        <v>135</v>
       </c>
       <c r="I119" s="3">
-        <f t="shared" si="1"/>
-        <v>1.6437518295172258</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5874010519681994</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -4500,8 +4500,8 @@
       <c r="B120" s="4">
         <v>1</v>
       </c>
-      <c r="C120" t="s">
-        <v>136</v>
+      <c r="C120" s="3">
+        <v>1</v>
       </c>
       <c r="D120" s="3">
         <v>1</v>
@@ -4515,11 +4515,11 @@
       <c r="G120" s="3">
         <v>1</v>
       </c>
-      <c r="H120" s="3">
-        <v>1</v>
+      <c r="H120" t="s">
+        <v>135</v>
       </c>
       <c r="I120" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4530,27 +4530,27 @@
       <c r="B121" s="4">
         <v>3</v>
       </c>
-      <c r="C121" t="s">
-        <v>136</v>
+      <c r="C121" s="3">
+        <v>2.5</v>
       </c>
       <c r="D121" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E121" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F121" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G121" s="3">
         <v>3</v>
       </c>
-      <c r="H121" s="3">
-        <v>2</v>
+      <c r="H121" t="s">
+        <v>135</v>
       </c>
       <c r="I121" s="3">
-        <f t="shared" si="1"/>
-        <v>2.825234500494767</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6207413942088964</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -4560,8 +4560,8 @@
       <c r="B122" s="4">
         <v>2</v>
       </c>
-      <c r="C122" t="s">
-        <v>136</v>
+      <c r="C122" s="3">
+        <v>1</v>
       </c>
       <c r="D122" s="3">
         <v>2</v>
@@ -4570,17 +4570,17 @@
         <v>2</v>
       </c>
       <c r="F122" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G122" s="3">
         <v>2</v>
       </c>
-      <c r="H122" s="3">
-        <v>2</v>
+      <c r="H122" t="s">
+        <v>135</v>
       </c>
       <c r="I122" s="3">
-        <f t="shared" si="1"/>
-        <v>1.7411011265922482</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -4590,14 +4590,14 @@
       <c r="B123" s="4">
         <v>2</v>
       </c>
-      <c r="C123" t="s">
-        <v>136</v>
+      <c r="C123" s="3">
+        <v>2</v>
       </c>
       <c r="D123" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E123" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F123" s="3">
         <v>2</v>
@@ -4605,12 +4605,12 @@
       <c r="G123" s="3">
         <v>3</v>
       </c>
-      <c r="H123" s="3">
-        <v>2</v>
+      <c r="H123" t="s">
+        <v>135</v>
       </c>
       <c r="I123" s="3">
-        <f t="shared" si="1"/>
-        <v>2.3521580450493471</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.2894284851066637</v>
       </c>
     </row>
   </sheetData>

--- a/color/comparison_color.xlsx
+++ b/color/comparison_color.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c3b4e3b2cf5740/Documents/GitHub/G/color/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b95324ec1dbd516d/Dokumenty/GitHub/G/color/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="415" documentId="8_{E4594A22-AFE3-454B-A66C-71E7CD8BEF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD2433A1-2B63-4DB5-91FF-F05C015596C1}"/>
+  <xr:revisionPtr revIDLastSave="611" documentId="8_{E4594A22-AFE3-454B-A66C-71E7CD8BEF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0A9BD33-5D95-457B-9BE0-FAE09FE2EDFB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8DDA7121-79A4-441C-B316-0237A835ED06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8DDA7121-79A4-441C-B316-0237A835ED06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>PAT_924_1757_704</t>
   </si>
@@ -503,11 +506,26 @@
   <si>
     <t>Image_ID</t>
   </si>
+  <si>
+    <t>Count of match</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -547,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -556,7 +574,11 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,6 +594,3262 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[comparison_color.xlsx]Sheet1!PivotTable6</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>matches with computer</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EB0F-4D2E-9ED4-239FC3F4510C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F2EF-42BC-888B-70A2DCDAD600}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-EB0F-4D2E-9ED4-239FC3F4510C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$11:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>no</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>yes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$11:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2EF-42BC-888B-70A2DCDAD600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>outcome of the color test</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4558244679658745"/>
+          <c:y val="2.5642388955331767E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>computer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$123</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B463-4EA5-B8D6-CDC34B9112F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$123</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B463-4EA5-B8D6-CDC34B9112F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="257192784"/>
+        <c:axId val="257194224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="257192784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="257194224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="257194224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="257192784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1721F961-1262-E187-D311-98692EEB842D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{990A426F-4F87-D469-509D-91823F40470E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aniela Ciecierska" refreshedDate="45412.496153356478" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="123" xr:uid="{00652502-6991-4803-A709-A5A0A02AFFE2}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="H1:H1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="match" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="yes"/>
+        <s v="no"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="123">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B10D5E8-C9DE-4F4B-96B3-176F4A0267FF}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="K10:L14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of match" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -891,26 +4169,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D519F41-A112-4A68-AC6F-405E518203B9}">
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="3"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="3"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -931,18 +4215,18 @@
       <c r="H1" t="s">
         <v>134</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>131</v>
       </c>
       <c r="J1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>2</v>
       </c>
       <c r="C2" s="3">
@@ -960,22 +4244,23 @@
       <c r="G2" s="3">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="3">
-        <f t="shared" ref="I2:I33" ca="1" si="0">GEOMEAN(E2:I2)</f>
+      <c r="H2" t="str">
+        <f>IF(I2=B2,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="I2" s="6">
+        <f>ROUND(GEOMEAN(C2:G2),0)</f>
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="3">
@@ -993,22 +4278,23 @@
       <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I3" s="3">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="0">IF(I3=B3,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I66" si="1">ROUND(GEOMEAN(C3:G3),0)</f>
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3">
@@ -1026,22 +4312,23 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8171205928321397</v>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="3">
@@ -1059,22 +4346,23 @@
       <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="3">
@@ -1092,20 +4380,21 @@
       <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="3">
@@ -1123,20 +4412,21 @@
       <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5874010519681994</v>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="3">
@@ -1154,20 +4444,21 @@
       <c r="G8" s="3">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2599210498948732</v>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="3">
@@ -1185,19 +4476,20 @@
       <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" s="3">
@@ -1215,19 +4507,26 @@
       <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="3">
@@ -1245,19 +4544,26 @@
       <c r="G11" s="3">
         <v>2</v>
       </c>
-      <c r="H11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3">
@@ -1275,19 +4581,26 @@
       <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="H12" t="s">
-        <v>136</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>2</v>
       </c>
       <c r="C13" s="3">
@@ -1305,19 +4618,23 @@
       <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="H13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
       <c r="C14" s="3">
@@ -1335,19 +4652,26 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
-        <v>135</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2599210498948732</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>2</v>
       </c>
       <c r="C15" s="3">
@@ -1365,19 +4689,20 @@
       <c r="G15" s="3">
         <v>2</v>
       </c>
-      <c r="H15" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>3</v>
       </c>
       <c r="C16" s="3">
@@ -1395,19 +4720,20 @@
       <c r="G16" s="3">
         <v>3</v>
       </c>
-      <c r="H16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.6207413942088964</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" s="3">
@@ -1425,19 +4751,20 @@
       <c r="G17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>2</v>
       </c>
       <c r="C18" s="3">
@@ -1455,19 +4782,20 @@
       <c r="G18" s="3">
         <v>4</v>
       </c>
-      <c r="H18" t="s">
-        <v>136</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.3019272488946267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>2</v>
       </c>
       <c r="C19" s="3">
@@ -1485,19 +4813,20 @@
       <c r="G19" s="3">
         <v>3</v>
       </c>
-      <c r="H19" t="s">
-        <v>135</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>2</v>
       </c>
       <c r="C20" s="3">
@@ -1515,19 +4844,20 @@
       <c r="G20" s="3">
         <v>3</v>
       </c>
-      <c r="H20" t="s">
-        <v>135</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" s="3">
@@ -1545,19 +4875,20 @@
       <c r="G21" s="3">
         <v>2</v>
       </c>
-      <c r="H21" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>2</v>
       </c>
       <c r="C22" s="3">
@@ -1575,19 +4906,20 @@
       <c r="G22" s="3">
         <v>3</v>
       </c>
-      <c r="H22" t="s">
-        <v>135</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8171205928321397</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>2</v>
       </c>
       <c r="C23" s="3">
@@ -1605,19 +4937,20 @@
       <c r="G23" s="3">
         <v>2</v>
       </c>
-      <c r="H23" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>2</v>
       </c>
       <c r="C24" s="3">
@@ -1635,19 +4968,20 @@
       <c r="G24" s="3">
         <v>2</v>
       </c>
-      <c r="H24" t="s">
-        <v>135</v>
-      </c>
-      <c r="I24" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>2</v>
       </c>
       <c r="C25" s="3">
@@ -1665,19 +4999,20 @@
       <c r="G25" s="3">
         <v>3</v>
       </c>
-      <c r="H25" t="s">
-        <v>135</v>
-      </c>
-      <c r="I25" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>2</v>
       </c>
       <c r="C26" s="3">
@@ -1695,19 +5030,20 @@
       <c r="G26" s="3">
         <v>2</v>
       </c>
-      <c r="H26" t="s">
-        <v>136</v>
-      </c>
-      <c r="I26" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>1</v>
       </c>
       <c r="C27" s="3">
@@ -1725,19 +5061,20 @@
       <c r="G27" s="3">
         <v>2</v>
       </c>
-      <c r="H27" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>1</v>
       </c>
       <c r="C28" s="3">
@@ -1755,19 +5092,20 @@
       <c r="G28" s="3">
         <v>2</v>
       </c>
-      <c r="H28" t="s">
-        <v>135</v>
-      </c>
-      <c r="I28" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2599210498948732</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>2</v>
       </c>
       <c r="C29" s="3">
@@ -1785,19 +5123,20 @@
       <c r="G29" s="3">
         <v>3</v>
       </c>
-      <c r="H29" t="s">
-        <v>135</v>
-      </c>
-      <c r="I29" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8171205928321397</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>2</v>
       </c>
       <c r="C30" s="3">
@@ -1815,19 +5154,20 @@
       <c r="G30" s="3">
         <v>2</v>
       </c>
-      <c r="H30" t="s">
-        <v>136</v>
-      </c>
-      <c r="I30" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>1</v>
       </c>
       <c r="C31" s="3">
@@ -1845,19 +5185,20 @@
       <c r="G31" s="3">
         <v>2</v>
       </c>
-      <c r="H31" t="s">
-        <v>135</v>
-      </c>
-      <c r="I31" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2599210498948732</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>1</v>
       </c>
       <c r="C32" s="3">
@@ -1875,19 +5216,20 @@
       <c r="G32" s="3">
         <v>3</v>
       </c>
-      <c r="H32" t="s">
-        <v>136</v>
-      </c>
-      <c r="I32" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>2</v>
       </c>
       <c r="C33" s="3">
@@ -1905,19 +5247,20 @@
       <c r="G33" s="3">
         <v>3</v>
       </c>
-      <c r="H33" t="s">
-        <v>135</v>
-      </c>
-      <c r="I33" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>2</v>
       </c>
       <c r="C34" s="3">
@@ -1935,19 +5278,20 @@
       <c r="G34" s="3">
         <v>4</v>
       </c>
-      <c r="H34" t="s">
-        <v>136</v>
-      </c>
-      <c r="I34" s="3">
-        <f t="shared" ref="I34:I65" ca="1" si="1">GEOMEAN(E34:I34)</f>
-        <v>2.8844991406148166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>2</v>
       </c>
       <c r="C35" s="3">
@@ -1965,19 +5309,20 @@
       <c r="G35" s="3">
         <v>2</v>
       </c>
-      <c r="H35" t="s">
-        <v>136</v>
-      </c>
-      <c r="I35" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>2</v>
       </c>
       <c r="C36" s="3">
@@ -1995,19 +5340,20 @@
       <c r="G36" s="3">
         <v>2</v>
       </c>
-      <c r="H36" t="s">
-        <v>135</v>
-      </c>
-      <c r="I36" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>2</v>
       </c>
       <c r="C37" s="3">
@@ -2025,19 +5371,20 @@
       <c r="G37" s="3">
         <v>2</v>
       </c>
-      <c r="H37" t="s">
-        <v>135</v>
-      </c>
-      <c r="I37" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>2</v>
       </c>
       <c r="C38" s="3">
@@ -2055,19 +5402,20 @@
       <c r="G38" s="3">
         <v>3</v>
       </c>
-      <c r="H38" t="s">
-        <v>135</v>
-      </c>
-      <c r="I38" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>2</v>
       </c>
       <c r="C39" s="3">
@@ -2085,19 +5433,20 @@
       <c r="G39" s="3">
         <v>3</v>
       </c>
-      <c r="H39" t="s">
-        <v>135</v>
-      </c>
-      <c r="I39" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>2</v>
       </c>
       <c r="C40" s="3">
@@ -2115,19 +5464,20 @@
       <c r="G40" s="3">
         <v>3</v>
       </c>
-      <c r="H40" t="s">
-        <v>135</v>
-      </c>
-      <c r="I40" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.8171205928321397</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>3</v>
       </c>
       <c r="C41" s="3">
@@ -2145,19 +5495,20 @@
       <c r="G41" s="3">
         <v>3</v>
       </c>
-      <c r="H41" t="s">
-        <v>135</v>
-      </c>
-      <c r="I41" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.6207413942088964</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>2</v>
       </c>
       <c r="C42" s="3">
@@ -2175,19 +5526,20 @@
       <c r="G42" s="3">
         <v>2</v>
       </c>
-      <c r="H42" t="s">
-        <v>135</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>2</v>
       </c>
       <c r="C43" s="3">
@@ -2205,19 +5557,20 @@
       <c r="G43" s="3">
         <v>3</v>
       </c>
-      <c r="H43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I43" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.6207413942088964</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>2</v>
       </c>
       <c r="C44" s="3">
@@ -2235,19 +5588,20 @@
       <c r="G44" s="3">
         <v>2</v>
       </c>
-      <c r="H44" t="s">
-        <v>135</v>
-      </c>
-      <c r="I44" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I44" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>2</v>
       </c>
       <c r="C45" s="3">
@@ -2265,19 +5619,20 @@
       <c r="G45" s="3">
         <v>1</v>
       </c>
-      <c r="H45" t="s">
-        <v>136</v>
-      </c>
-      <c r="I45" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I45" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>1</v>
       </c>
       <c r="C46" s="3">
@@ -2295,19 +5650,20 @@
       <c r="G46" s="3">
         <v>2</v>
       </c>
-      <c r="H46" t="s">
-        <v>136</v>
-      </c>
-      <c r="I46" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I46" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>1</v>
       </c>
       <c r="C47" s="3">
@@ -2325,19 +5681,20 @@
       <c r="G47" s="3">
         <v>2</v>
       </c>
-      <c r="H47" t="s">
-        <v>136</v>
-      </c>
-      <c r="I47" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I47" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>3</v>
       </c>
       <c r="C48" s="3">
@@ -2355,19 +5712,20 @@
       <c r="G48" s="3">
         <v>3</v>
       </c>
-      <c r="H48" t="s">
-        <v>135</v>
-      </c>
-      <c r="I48" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I48" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>2</v>
       </c>
       <c r="C49" s="3">
@@ -2385,19 +5743,20 @@
       <c r="G49" s="3">
         <v>1</v>
       </c>
-      <c r="H49" t="s">
-        <v>136</v>
-      </c>
-      <c r="I49" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I49" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>2</v>
       </c>
       <c r="C50" s="3">
@@ -2415,19 +5774,20 @@
       <c r="G50" s="3">
         <v>2</v>
       </c>
-      <c r="H50" t="s">
-        <v>135</v>
-      </c>
-      <c r="I50" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I50" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>2</v>
       </c>
       <c r="C51" s="3">
@@ -2445,19 +5805,20 @@
       <c r="G51" s="3">
         <v>3</v>
       </c>
-      <c r="H51" t="s">
-        <v>135</v>
-      </c>
-      <c r="I51" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I51" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>2</v>
       </c>
       <c r="C52" s="3">
@@ -2475,19 +5836,20 @@
       <c r="G52" s="3">
         <v>2</v>
       </c>
-      <c r="H52" t="s">
-        <v>135</v>
-      </c>
-      <c r="I52" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I52" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>2</v>
       </c>
       <c r="C53" s="3">
@@ -2505,19 +5867,20 @@
       <c r="G53" s="3">
         <v>3</v>
       </c>
-      <c r="H53" t="s">
-        <v>136</v>
-      </c>
-      <c r="I53" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.6207413942088964</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I53" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>2</v>
       </c>
       <c r="C54" s="3">
@@ -2535,19 +5898,20 @@
       <c r="G54" s="3">
         <v>2</v>
       </c>
-      <c r="H54" t="s">
-        <v>136</v>
-      </c>
-      <c r="I54" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I54" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>2</v>
       </c>
       <c r="C55" s="3">
@@ -2565,19 +5929,20 @@
       <c r="G55" s="3">
         <v>3</v>
       </c>
-      <c r="H55" t="s">
-        <v>135</v>
-      </c>
-      <c r="I55" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I55" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>2</v>
       </c>
       <c r="C56" s="3">
@@ -2595,19 +5960,20 @@
       <c r="G56" s="3">
         <v>2</v>
       </c>
-      <c r="H56" t="s">
-        <v>135</v>
-      </c>
-      <c r="I56" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I56" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>2</v>
       </c>
       <c r="C57" s="3">
@@ -2625,19 +5991,20 @@
       <c r="G57" s="3">
         <v>3</v>
       </c>
-      <c r="H57" t="s">
-        <v>135</v>
-      </c>
-      <c r="I57" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I57" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>2</v>
       </c>
       <c r="C58" s="3">
@@ -2655,19 +6022,20 @@
       <c r="G58" s="3">
         <v>2</v>
       </c>
-      <c r="H58" t="s">
-        <v>135</v>
-      </c>
-      <c r="I58" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I58" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>2</v>
       </c>
       <c r="C59" s="3">
@@ -2685,19 +6053,20 @@
       <c r="G59" s="3">
         <v>3</v>
       </c>
-      <c r="H59" t="s">
-        <v>136</v>
-      </c>
-      <c r="I59" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.6207413942088964</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I59" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>2</v>
       </c>
       <c r="C60" s="3">
@@ -2715,19 +6084,20 @@
       <c r="G60" s="3">
         <v>3</v>
       </c>
-      <c r="H60" t="s">
-        <v>135</v>
-      </c>
-      <c r="I60" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I60" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>2</v>
       </c>
       <c r="C61" s="3">
@@ -2745,19 +6115,20 @@
       <c r="G61" s="3">
         <v>2</v>
       </c>
-      <c r="H61" t="s">
-        <v>135</v>
-      </c>
-      <c r="I61" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I61" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <v>2</v>
       </c>
       <c r="C62" s="3">
@@ -2775,19 +6146,20 @@
       <c r="G62" s="3">
         <v>3</v>
       </c>
-      <c r="H62" t="s">
-        <v>136</v>
-      </c>
-      <c r="I62" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.6207413942088964</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I62" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>2</v>
       </c>
       <c r="C63" s="3">
@@ -2805,19 +6177,20 @@
       <c r="G63" s="3">
         <v>1</v>
       </c>
-      <c r="H63" t="s">
-        <v>136</v>
-      </c>
-      <c r="I63" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2599210498948732</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I63" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>1</v>
       </c>
       <c r="C64" s="3">
@@ -2835,19 +6208,20 @@
       <c r="G64" s="3">
         <v>3</v>
       </c>
-      <c r="H64" t="s">
-        <v>136</v>
-      </c>
-      <c r="I64" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I64" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>2</v>
       </c>
       <c r="C65" s="3">
@@ -2865,19 +6239,20 @@
       <c r="G65" s="3">
         <v>3</v>
       </c>
-      <c r="H65" t="s">
-        <v>135</v>
-      </c>
-      <c r="I65" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I65" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>1</v>
       </c>
       <c r="C66" s="3">
@@ -2895,19 +6270,20 @@
       <c r="G66" s="3">
         <v>2</v>
       </c>
-      <c r="H66" t="s">
-        <v>135</v>
-      </c>
-      <c r="I66" s="3">
-        <f t="shared" ref="I66:I97" ca="1" si="2">GEOMEAN(E66:I66)</f>
-        <v>1.2599210498948732</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v>yes</v>
+      </c>
+      <c r="I66" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>2</v>
       </c>
       <c r="C67" s="3">
@@ -2925,19 +6301,20 @@
       <c r="G67" s="3">
         <v>3</v>
       </c>
-      <c r="H67" t="s">
-        <v>135</v>
-      </c>
-      <c r="I67" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H123" si="2">IF(I67=B67,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="I67" s="6">
+        <f t="shared" ref="I67:I123" si="3">ROUND(GEOMEAN(C67:G67),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>2</v>
       </c>
       <c r="C68" s="3">
@@ -2955,19 +6332,20 @@
       <c r="G68" s="3">
         <v>1</v>
       </c>
-      <c r="H68" t="s">
-        <v>136</v>
-      </c>
-      <c r="I68" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.2599210498948732</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H68" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I68" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>2</v>
       </c>
       <c r="C69" s="3">
@@ -2985,19 +6363,20 @@
       <c r="G69" s="3">
         <v>2</v>
       </c>
-      <c r="H69" t="s">
-        <v>135</v>
-      </c>
-      <c r="I69" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H69" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I69" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <v>2</v>
       </c>
       <c r="C70" s="3">
@@ -3015,19 +6394,20 @@
       <c r="G70" s="3">
         <v>1</v>
       </c>
-      <c r="H70" t="s">
-        <v>136</v>
-      </c>
-      <c r="I70" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.2599210498948732</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H70" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I70" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>2</v>
       </c>
       <c r="C71" s="3">
@@ -3045,19 +6425,20 @@
       <c r="G71" s="3">
         <v>1</v>
       </c>
-      <c r="H71" t="s">
-        <v>136</v>
-      </c>
-      <c r="I71" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.2599210498948732</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H71" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I71" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>2</v>
       </c>
       <c r="C72" s="3">
@@ -3075,19 +6456,20 @@
       <c r="G72" s="3">
         <v>2</v>
       </c>
-      <c r="H72" t="s">
-        <v>135</v>
-      </c>
-      <c r="I72" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H72" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I72" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>2</v>
       </c>
       <c r="C73" s="3">
@@ -3105,19 +6487,20 @@
       <c r="G73" s="3">
         <v>1</v>
       </c>
-      <c r="H73" t="s">
-        <v>135</v>
-      </c>
-      <c r="I73" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H73" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I73" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="3">
         <v>2</v>
       </c>
       <c r="C74" s="3">
@@ -3135,19 +6518,20 @@
       <c r="G74" s="3">
         <v>2</v>
       </c>
-      <c r="H74" t="s">
-        <v>135</v>
-      </c>
-      <c r="I74" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H74" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I74" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="3">
         <v>2</v>
       </c>
       <c r="C75" s="3">
@@ -3165,19 +6549,20 @@
       <c r="G75" s="3">
         <v>2</v>
       </c>
-      <c r="H75" t="s">
-        <v>135</v>
-      </c>
-      <c r="I75" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H75" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I75" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="3">
         <v>2</v>
       </c>
       <c r="C76" s="3">
@@ -3195,19 +6580,20 @@
       <c r="G76" s="3">
         <v>1</v>
       </c>
-      <c r="H76" t="s">
-        <v>135</v>
-      </c>
-      <c r="I76" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H76" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I76" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <v>2</v>
       </c>
       <c r="C77" s="3">
@@ -3225,19 +6611,20 @@
       <c r="G77" s="3">
         <v>2</v>
       </c>
-      <c r="H77" t="s">
-        <v>136</v>
-      </c>
-      <c r="I77" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.2599210498948732</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H77" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I77" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <v>1</v>
       </c>
       <c r="C78" s="3">
@@ -3255,19 +6642,20 @@
       <c r="G78" s="3">
         <v>1</v>
       </c>
-      <c r="H78" t="s">
-        <v>136</v>
-      </c>
-      <c r="I78" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H78" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I78" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <v>2</v>
       </c>
       <c r="C79" s="3">
@@ -3285,19 +6673,20 @@
       <c r="G79" s="3">
         <v>2</v>
       </c>
-      <c r="H79" t="s">
-        <v>135</v>
-      </c>
-      <c r="I79" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H79" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I79" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <v>2</v>
       </c>
       <c r="C80" s="3">
@@ -3315,19 +6704,20 @@
       <c r="G80" s="3">
         <v>2</v>
       </c>
-      <c r="H80" t="s">
-        <v>135</v>
-      </c>
-      <c r="I80" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H80" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I80" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <v>2</v>
       </c>
       <c r="C81" s="3">
@@ -3345,19 +6735,20 @@
       <c r="G81" s="3">
         <v>2</v>
       </c>
-      <c r="H81" t="s">
-        <v>135</v>
-      </c>
-      <c r="I81" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H81" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I81" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="3">
         <v>1</v>
       </c>
       <c r="C82" s="3">
@@ -3375,19 +6766,20 @@
       <c r="G82" s="3">
         <v>2</v>
       </c>
-      <c r="H82" t="s">
-        <v>135</v>
-      </c>
-      <c r="I82" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H82" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I82" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="3">
         <v>2</v>
       </c>
       <c r="C83" s="3">
@@ -3405,19 +6797,20 @@
       <c r="G83" s="3">
         <v>3</v>
       </c>
-      <c r="H83" t="s">
-        <v>136</v>
-      </c>
-      <c r="I83" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.6207413942088964</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H83" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I83" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="3">
         <v>2</v>
       </c>
       <c r="C84" s="3">
@@ -3435,19 +6828,20 @@
       <c r="G84" s="3">
         <v>3</v>
       </c>
-      <c r="H84" t="s">
-        <v>136</v>
-      </c>
-      <c r="I84" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.6207413942088964</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H84" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I84" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="3">
         <v>2</v>
       </c>
       <c r="C85" s="3">
@@ -3465,19 +6859,20 @@
       <c r="G85" s="3">
         <v>3</v>
       </c>
-      <c r="H85" t="s">
-        <v>136</v>
-      </c>
-      <c r="I85" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.6207413942088964</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H85" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I85" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="3">
         <v>2</v>
       </c>
       <c r="C86" s="3">
@@ -3495,19 +6890,20 @@
       <c r="G86" s="3">
         <v>2</v>
       </c>
-      <c r="H86" t="s">
-        <v>135</v>
-      </c>
-      <c r="I86" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H86" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I86" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="3">
         <v>2</v>
       </c>
       <c r="C87" s="3">
@@ -3525,19 +6921,20 @@
       <c r="G87" s="3">
         <v>3</v>
       </c>
-      <c r="H87" t="s">
-        <v>136</v>
-      </c>
-      <c r="I87" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H87" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I87" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="3">
         <v>1</v>
       </c>
       <c r="C88" s="3">
@@ -3555,19 +6952,20 @@
       <c r="G88" s="3">
         <v>2</v>
       </c>
-      <c r="H88" t="s">
-        <v>135</v>
-      </c>
-      <c r="I88" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.2599210498948732</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H88" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I88" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="3">
         <v>1</v>
       </c>
       <c r="C89" s="3">
@@ -3585,19 +6983,20 @@
       <c r="G89" s="3">
         <v>1</v>
       </c>
-      <c r="H89" t="s">
-        <v>135</v>
-      </c>
-      <c r="I89" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H89" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I89" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="3">
         <v>2</v>
       </c>
       <c r="C90" s="3">
@@ -3615,19 +7014,20 @@
       <c r="G90" s="3">
         <v>2</v>
       </c>
-      <c r="H90" t="s">
-        <v>136</v>
-      </c>
-      <c r="I90" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H90" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I90" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="3">
         <v>1</v>
       </c>
       <c r="C91" s="3">
@@ -3645,19 +7045,20 @@
       <c r="G91" s="3">
         <v>2</v>
       </c>
-      <c r="H91" t="s">
-        <v>136</v>
-      </c>
-      <c r="I91" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H91" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I91" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="3">
         <v>3</v>
       </c>
       <c r="C92" s="3">
@@ -3675,19 +7076,20 @@
       <c r="G92" s="3">
         <v>3</v>
       </c>
-      <c r="H92" t="s">
-        <v>135</v>
-      </c>
-      <c r="I92" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.6207413942088964</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H92" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I92" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="3">
         <v>1</v>
       </c>
       <c r="C93" s="3">
@@ -3705,19 +7107,20 @@
       <c r="G93" s="3">
         <v>2</v>
       </c>
-      <c r="H93" t="s">
-        <v>136</v>
-      </c>
-      <c r="I93" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H93" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I93" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="3">
         <v>1</v>
       </c>
       <c r="C94" s="3">
@@ -3735,19 +7138,20 @@
       <c r="G94" s="3">
         <v>2</v>
       </c>
-      <c r="H94" t="s">
-        <v>136</v>
-      </c>
-      <c r="I94" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H94" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I94" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="3">
         <v>2</v>
       </c>
       <c r="C95" s="3">
@@ -3765,19 +7169,20 @@
       <c r="G95" s="3">
         <v>2</v>
       </c>
-      <c r="H95" t="s">
-        <v>135</v>
-      </c>
-      <c r="I95" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H95" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I95" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="3">
         <v>1</v>
       </c>
       <c r="C96" s="3">
@@ -3795,19 +7200,20 @@
       <c r="G96" s="3">
         <v>3</v>
       </c>
-      <c r="H96" t="s">
-        <v>136</v>
-      </c>
-      <c r="I96" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.8171205928321397</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H96" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I96" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="3">
         <v>1</v>
       </c>
       <c r="C97" s="3">
@@ -3825,19 +7231,20 @@
       <c r="G97" s="3">
         <v>2</v>
       </c>
-      <c r="H97" t="s">
-        <v>135</v>
-      </c>
-      <c r="I97" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H97" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I97" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="3">
         <v>2</v>
       </c>
       <c r="C98" s="3">
@@ -3855,19 +7262,20 @@
       <c r="G98" s="3">
         <v>2</v>
       </c>
-      <c r="H98" t="s">
-        <v>135</v>
-      </c>
-      <c r="I98" s="3">
-        <f t="shared" ref="I98:I123" ca="1" si="3">GEOMEAN(E98:I98)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H98" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I98" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="3">
         <v>2</v>
       </c>
       <c r="C99" s="3">
@@ -3885,19 +7293,20 @@
       <c r="G99" s="3">
         <v>3</v>
       </c>
-      <c r="H99" t="s">
-        <v>136</v>
-      </c>
-      <c r="I99" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.6207413942088964</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H99" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I99" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="3">
         <v>2</v>
       </c>
       <c r="C100" s="3">
@@ -3915,19 +7324,20 @@
       <c r="G100" s="3">
         <v>2</v>
       </c>
-      <c r="H100" t="s">
-        <v>135</v>
-      </c>
-      <c r="I100" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H100" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I100" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="3">
         <v>2</v>
       </c>
       <c r="C101" s="3">
@@ -3945,19 +7355,20 @@
       <c r="G101" s="3">
         <v>2</v>
       </c>
-      <c r="H101" t="s">
-        <v>135</v>
-      </c>
-      <c r="I101" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H101" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I101" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="3">
         <v>1</v>
       </c>
       <c r="C102" s="3">
@@ -3975,19 +7386,20 @@
       <c r="G102" s="3">
         <v>1</v>
       </c>
-      <c r="H102" t="s">
-        <v>135</v>
-      </c>
-      <c r="I102" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2599210498948732</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H102" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I102" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="3">
         <v>1</v>
       </c>
       <c r="C103" s="3">
@@ -4005,19 +7417,20 @@
       <c r="G103" s="3">
         <v>2</v>
       </c>
-      <c r="H103" t="s">
-        <v>135</v>
-      </c>
-      <c r="I103" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H103" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I103" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="3">
         <v>2</v>
       </c>
       <c r="C104" s="3">
@@ -4035,19 +7448,20 @@
       <c r="G104" s="3">
         <v>1</v>
       </c>
-      <c r="H104" t="s">
-        <v>136</v>
-      </c>
-      <c r="I104" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H104" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I104" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="3">
         <v>1</v>
       </c>
       <c r="C105" s="3">
@@ -4065,19 +7479,20 @@
       <c r="G105" s="3">
         <v>2</v>
       </c>
-      <c r="H105" t="s">
-        <v>136</v>
-      </c>
-      <c r="I105" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H105" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I105" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="3">
         <v>2</v>
       </c>
       <c r="C106" s="3">
@@ -4095,19 +7510,20 @@
       <c r="G106" s="3">
         <v>3</v>
       </c>
-      <c r="H106" t="s">
-        <v>135</v>
-      </c>
-      <c r="I106" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H106" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I106" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="3">
         <v>1</v>
       </c>
       <c r="C107" s="3">
@@ -4125,19 +7541,20 @@
       <c r="G107" s="3">
         <v>2</v>
       </c>
-      <c r="H107" t="s">
-        <v>135</v>
-      </c>
-      <c r="I107" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2599210498948732</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H107" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I107" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="3">
         <v>1</v>
       </c>
       <c r="C108" s="3">
@@ -4155,19 +7572,20 @@
       <c r="G108" s="3">
         <v>2</v>
       </c>
-      <c r="H108" t="s">
-        <v>135</v>
-      </c>
-      <c r="I108" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2599210498948732</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H108" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I108" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="3">
         <v>2</v>
       </c>
       <c r="C109" s="3">
@@ -4185,19 +7603,20 @@
       <c r="G109" s="3">
         <v>1</v>
       </c>
-      <c r="H109" t="s">
-        <v>135</v>
-      </c>
-      <c r="I109" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H109" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I109" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="3">
         <v>2</v>
       </c>
       <c r="C110" s="3">
@@ -4215,19 +7634,20 @@
       <c r="G110" s="3">
         <v>2</v>
       </c>
-      <c r="H110" t="s">
-        <v>136</v>
-      </c>
-      <c r="I110" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H110" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I110" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="3">
         <v>2</v>
       </c>
       <c r="C111" s="3">
@@ -4245,19 +7665,20 @@
       <c r="G111" s="3">
         <v>3</v>
       </c>
-      <c r="H111" t="s">
-        <v>136</v>
-      </c>
-      <c r="I111" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.2894284851066637</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H111" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I111" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="3">
         <v>2</v>
       </c>
       <c r="C112" s="3">
@@ -4275,19 +7696,20 @@
       <c r="G112" s="3">
         <v>2</v>
       </c>
-      <c r="H112" t="s">
-        <v>135</v>
-      </c>
-      <c r="I112" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H112" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I112" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="3">
         <v>2</v>
       </c>
       <c r="C113" s="3">
@@ -4305,19 +7727,20 @@
       <c r="G113" s="3">
         <v>2</v>
       </c>
-      <c r="H113" t="s">
-        <v>135</v>
-      </c>
-      <c r="I113" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H113" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I113" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="3">
         <v>1</v>
       </c>
       <c r="C114" s="3">
@@ -4335,19 +7758,20 @@
       <c r="G114" s="3">
         <v>1</v>
       </c>
-      <c r="H114" t="s">
-        <v>135</v>
-      </c>
-      <c r="I114" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2599210498948732</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H114" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I114" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="3">
         <v>2</v>
       </c>
       <c r="C115" s="3">
@@ -4365,19 +7789,20 @@
       <c r="G115" s="3">
         <v>2</v>
       </c>
-      <c r="H115" t="s">
-        <v>135</v>
-      </c>
-      <c r="I115" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H115" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I115" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="3">
         <v>3</v>
       </c>
       <c r="C116" s="3">
@@ -4395,19 +7820,20 @@
       <c r="G116" s="3">
         <v>2</v>
       </c>
-      <c r="H116" t="s">
-        <v>136</v>
-      </c>
-      <c r="I116" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H116" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I116" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="3">
         <v>1</v>
       </c>
       <c r="C117" s="3">
@@ -4425,19 +7851,20 @@
       <c r="G117" s="3">
         <v>1</v>
       </c>
-      <c r="H117" t="s">
-        <v>135</v>
-      </c>
-      <c r="I117" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2599210498948732</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H117" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I117" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="3">
         <v>1</v>
       </c>
       <c r="C118" s="3">
@@ -4455,19 +7882,20 @@
       <c r="G118" s="3">
         <v>2</v>
       </c>
-      <c r="H118" t="s">
-        <v>135</v>
-      </c>
-      <c r="I118" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2599210498948732</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H118" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I118" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="3">
         <v>2</v>
       </c>
       <c r="C119" s="3">
@@ -4485,19 +7913,20 @@
       <c r="G119" s="3">
         <v>1</v>
       </c>
-      <c r="H119" t="s">
-        <v>135</v>
-      </c>
-      <c r="I119" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.5874010519681994</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H119" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I119" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="3">
         <v>1</v>
       </c>
       <c r="C120" s="3">
@@ -4515,19 +7944,20 @@
       <c r="G120" s="3">
         <v>1</v>
       </c>
-      <c r="H120" t="s">
-        <v>135</v>
-      </c>
-      <c r="I120" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H120" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I120" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="3">
         <v>3</v>
       </c>
       <c r="C121" s="3">
@@ -4545,19 +7975,20 @@
       <c r="G121" s="3">
         <v>3</v>
       </c>
-      <c r="H121" t="s">
-        <v>135</v>
-      </c>
-      <c r="I121" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.6207413942088964</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H121" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I121" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="3">
         <v>2</v>
       </c>
       <c r="C122" s="3">
@@ -4575,19 +8006,20 @@
       <c r="G122" s="3">
         <v>2</v>
       </c>
-      <c r="H122" t="s">
-        <v>135</v>
-      </c>
-      <c r="I122" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H122" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I122" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="3">
         <v>2</v>
       </c>
       <c r="C123" s="3">
@@ -4605,15 +8037,17 @@
       <c r="G123" s="3">
         <v>3</v>
       </c>
-      <c r="H123" t="s">
-        <v>135</v>
-      </c>
-      <c r="I123" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.2894284851066637</v>
+      <c r="H123" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="I123" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/color/comparison_color.xlsx
+++ b/color/comparison_color.xlsx
@@ -2,22 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b95324ec1dbd516d/Dokumenty/GitHub/G/color/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="611" documentId="8_{E4594A22-AFE3-454B-A66C-71E7CD8BEF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0A9BD33-5D95-457B-9BE0-FAE09FE2EDFB}"/>
+  <xr:revisionPtr revIDLastSave="697" documentId="8_{E4594A22-AFE3-454B-A66C-71E7CD8BEF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BD2D1C9-3135-4DF6-ADD9-F8E3051B857E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8DDA7121-79A4-441C-B316-0237A835ED06}"/>
+    <workbookView xWindow="6345" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{8DDA7121-79A4-441C-B316-0237A835ED06}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RGB" sheetId="1" r:id="rId1"/>
+    <sheet name="HSV" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="143">
   <si>
     <t>PAT_924_1757_704</t>
   </si>
@@ -517,6 +519,9 @@
   </si>
   <si>
     <t>(blank)</t>
+  </si>
+  <si>
+    <t>Count of no</t>
   </si>
 </sst>
 </file>
@@ -565,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -579,6 +584,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,7 +616,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[comparison_color.xlsx]Sheet1!PivotTable6</c:name>
+    <c:name>[comparison_color.xlsx]RGB!PivotTable6</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -795,7 +801,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$10</c:f>
+              <c:f>RGB!$L$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -939,7 +945,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$11:$K$14</c:f>
+              <c:f>RGB!$K$11:$K$14</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -956,7 +962,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$11:$L$14</c:f>
+              <c:f>RGB!$L$11:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1178,7 +1184,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>RGB!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1203,7 +1209,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$123</c:f>
+              <c:f>RGB!$B$2:$B$123</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="122"/>
@@ -1587,7 +1593,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>RGB!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1610,7 +1616,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$123</c:f>
+              <c:f>RGB!$I$2:$I$123</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="122"/>
@@ -2192,6 +2198,463 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>HSV matches</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> with computer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1931454337438589"/>
+          <c:y val="0.13911310642616795"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total</c:v>
+          </c:tx>
+          <c:explosion val="3"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-36DD-4A6F-9346-173340513A4E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-36DD-4A6F-9346-173340513A4E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-36DD-4A6F-9346-173340513A4E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-36DD-4A6F-9346-173340513A4E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>no</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>yes</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>(blank)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>89</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>32</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36DD-4A6F-9346-173340513A4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2236,6 +2699,46 @@
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -3280,6 +3783,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3357,6 +4379,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D72957-2EC4-06CB-EC97-82F0CB6249A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -3364,7 +4427,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aniela Ciecierska" refreshedDate="45412.496153356478" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="123" xr:uid="{00652502-6991-4803-A709-A5A0A02AFFE2}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="H1:H1048576" sheet="Sheet1"/>
+    <worksheetSource ref="H1:H1048576" sheet="RGB"/>
   </cacheSource>
   <cacheFields count="1">
     <cacheField name="match" numFmtId="0">
@@ -3383,6 +4446,28 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aniela Ciecierska" refreshedDate="45412.588909143517" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="122" xr:uid="{DAC001CA-EE7A-47C7-944B-142B7F468F36}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="I1:I1048576" sheet="HSV"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="no" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="no"/>
+        <s v="yes"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="123">
   <r>
@@ -3738,6 +4823,377 @@
   </r>
   <r>
     <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="122">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
@@ -3840,6 +5296,54 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8D1C5C6-2CDE-4FFB-98B5-A6637A4DB2F5}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K3:L7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of no" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -4171,8 +5675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D519F41-A112-4A68-AC6F-405E518203B9}">
   <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8050,4 +9554,3837 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62DA70A-E24F-4FE0-A9F1-737D02A22E2B}">
+  <dimension ref="A1:L122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <f>ROUND(GEOMEAN(C1:G1),0)</f>
+        <v>2</v>
+      </c>
+      <c r="I1" t="str">
+        <f>IF(H1=B1,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H65" si="0">ROUND(GEOMEAN(C2:G2),0)</f>
+        <v>2</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I65" si="1">IF(H2=B2,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L4" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L5" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" s="7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3">
+        <v>3</v>
+      </c>
+      <c r="G40" s="3">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
+        <v>3</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D47" s="3">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2</v>
+      </c>
+      <c r="G49" s="3">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
+      <c r="G51" s="3">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D54" s="3">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2</v>
+      </c>
+      <c r="E56" s="3">
+        <v>2</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D59" s="3">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2</v>
+      </c>
+      <c r="G59" s="3">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3</v>
+      </c>
+      <c r="D61" s="3">
+        <v>3</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
+      <c r="G63" s="3">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2</v>
+      </c>
+      <c r="G64" s="3">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ref="H66:H122" si="2">ROUND(GEOMEAN(C66:G66),0)</f>
+        <v>2</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" ref="I66:I122" si="3">IF(H66=B66,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>2</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>2</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2</v>
+      </c>
+      <c r="D71" s="3">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>2</v>
+      </c>
+      <c r="F73" s="3">
+        <v>2</v>
+      </c>
+      <c r="G73" s="3">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2</v>
+      </c>
+      <c r="E74" s="3">
+        <v>2</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2</v>
+      </c>
+      <c r="G74" s="3">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3">
+        <v>2</v>
+      </c>
+      <c r="E75" s="3">
+        <v>2</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3">
+        <v>2</v>
+      </c>
+      <c r="E77" s="3">
+        <v>2</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D78" s="3">
+        <v>2</v>
+      </c>
+      <c r="E78" s="3">
+        <v>2</v>
+      </c>
+      <c r="F78" s="3">
+        <v>2</v>
+      </c>
+      <c r="G78" s="3">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2</v>
+      </c>
+      <c r="E79" s="3">
+        <v>2</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2</v>
+      </c>
+      <c r="G79" s="3">
+        <v>2</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D80" s="3">
+        <v>3</v>
+      </c>
+      <c r="E80" s="3">
+        <v>2</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2</v>
+      </c>
+      <c r="G80" s="3">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D82" s="3">
+        <v>4</v>
+      </c>
+      <c r="E82" s="3">
+        <v>2</v>
+      </c>
+      <c r="F82" s="3">
+        <v>3</v>
+      </c>
+      <c r="G82" s="3">
+        <v>3</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3">
+        <v>3</v>
+      </c>
+      <c r="D83" s="3">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3">
+        <v>3</v>
+      </c>
+      <c r="D84" s="3">
+        <v>3</v>
+      </c>
+      <c r="E84" s="3">
+        <v>3</v>
+      </c>
+      <c r="F84" s="3">
+        <v>2</v>
+      </c>
+      <c r="G84" s="3">
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3">
+        <v>2</v>
+      </c>
+      <c r="D85" s="3">
+        <v>3</v>
+      </c>
+      <c r="E85" s="3">
+        <v>2</v>
+      </c>
+      <c r="F85" s="3">
+        <v>2</v>
+      </c>
+      <c r="G85" s="3">
+        <v>2</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D86" s="3">
+        <v>4</v>
+      </c>
+      <c r="E86" s="3">
+        <v>2</v>
+      </c>
+      <c r="F86" s="3">
+        <v>2</v>
+      </c>
+      <c r="G86" s="3">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1</v>
+      </c>
+      <c r="D87" s="3">
+        <v>1</v>
+      </c>
+      <c r="E87" s="3">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1</v>
+      </c>
+      <c r="E88" s="3">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" s="3">
+        <v>1</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3">
+        <v>2</v>
+      </c>
+      <c r="E90" s="3">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>2</v>
+      </c>
+      <c r="G90" s="3">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91" s="3">
+        <v>3</v>
+      </c>
+      <c r="D91" s="3">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3">
+        <v>2</v>
+      </c>
+      <c r="G91" s="3">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2</v>
+      </c>
+      <c r="D92" s="3">
+        <v>2</v>
+      </c>
+      <c r="E92" s="3">
+        <v>2</v>
+      </c>
+      <c r="F92" s="3">
+        <v>2</v>
+      </c>
+      <c r="G92" s="3">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1</v>
+      </c>
+      <c r="E93" s="3">
+        <v>2</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3">
+        <v>2</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D94" s="3">
+        <v>2</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2</v>
+      </c>
+      <c r="G94" s="3">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" s="3">
+        <v>2</v>
+      </c>
+      <c r="D95" s="3">
+        <v>2</v>
+      </c>
+      <c r="E95" s="3">
+        <v>2</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1</v>
+      </c>
+      <c r="E96" s="3">
+        <v>2</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3">
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2</v>
+      </c>
+      <c r="D97" s="3">
+        <v>3</v>
+      </c>
+      <c r="E97" s="3">
+        <v>2</v>
+      </c>
+      <c r="F97" s="3">
+        <v>2</v>
+      </c>
+      <c r="G97" s="3">
+        <v>2</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" s="3">
+        <v>2</v>
+      </c>
+      <c r="D98" s="3">
+        <v>4</v>
+      </c>
+      <c r="E98" s="3">
+        <v>3</v>
+      </c>
+      <c r="F98" s="3">
+        <v>2</v>
+      </c>
+      <c r="G98" s="3">
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D99" s="3">
+        <v>2</v>
+      </c>
+      <c r="E99" s="3">
+        <v>2</v>
+      </c>
+      <c r="F99" s="3">
+        <v>2</v>
+      </c>
+      <c r="G99" s="3">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="3">
+        <v>2</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2</v>
+      </c>
+      <c r="G100" s="3">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3">
+        <v>2</v>
+      </c>
+      <c r="G102" s="3">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1</v>
+      </c>
+      <c r="E103" s="3">
+        <v>1</v>
+      </c>
+      <c r="F103" s="3">
+        <v>1</v>
+      </c>
+      <c r="G103" s="3">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1</v>
+      </c>
+      <c r="E104" s="3">
+        <v>2</v>
+      </c>
+      <c r="F104" s="3">
+        <v>2</v>
+      </c>
+      <c r="G104" s="3">
+        <v>2</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D105" s="3">
+        <v>3</v>
+      </c>
+      <c r="E105" s="3">
+        <v>2</v>
+      </c>
+      <c r="F105" s="3">
+        <v>2</v>
+      </c>
+      <c r="G105" s="3">
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" s="3">
+        <v>1</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+      <c r="E106" s="3">
+        <v>1</v>
+      </c>
+      <c r="F106" s="3">
+        <v>1</v>
+      </c>
+      <c r="G106" s="3">
+        <v>2</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" s="3">
+        <v>1</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1</v>
+      </c>
+      <c r="E107" s="3">
+        <v>1</v>
+      </c>
+      <c r="F107" s="3">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3">
+        <v>2</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D108" s="3">
+        <v>2</v>
+      </c>
+      <c r="E108" s="3">
+        <v>2</v>
+      </c>
+      <c r="F108" s="3">
+        <v>2</v>
+      </c>
+      <c r="G108" s="3">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1</v>
+      </c>
+      <c r="D109" s="3">
+        <v>1</v>
+      </c>
+      <c r="E109" s="3">
+        <v>2</v>
+      </c>
+      <c r="F109" s="3">
+        <v>1</v>
+      </c>
+      <c r="G109" s="3">
+        <v>2</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" s="3">
+        <v>3</v>
+      </c>
+      <c r="D110" s="3">
+        <v>3</v>
+      </c>
+      <c r="E110" s="3">
+        <v>2</v>
+      </c>
+      <c r="F110" s="3">
+        <v>2</v>
+      </c>
+      <c r="G110" s="3">
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I110" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" s="3">
+        <v>2</v>
+      </c>
+      <c r="D111" s="3">
+        <v>2</v>
+      </c>
+      <c r="E111" s="3">
+        <v>2</v>
+      </c>
+      <c r="F111" s="3">
+        <v>2</v>
+      </c>
+      <c r="G111" s="3">
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="3">
+        <v>2</v>
+      </c>
+      <c r="G112" s="3">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D113" s="3">
+        <v>2</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3">
+        <v>2</v>
+      </c>
+      <c r="G113" s="3">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D114" s="3">
+        <v>2</v>
+      </c>
+      <c r="E114" s="3">
+        <v>2</v>
+      </c>
+      <c r="F114" s="3">
+        <v>2</v>
+      </c>
+      <c r="G114" s="3">
+        <v>2</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" s="3">
+        <v>1</v>
+      </c>
+      <c r="D115" s="3">
+        <v>2</v>
+      </c>
+      <c r="E115" s="3">
+        <v>2</v>
+      </c>
+      <c r="F115" s="3">
+        <v>2</v>
+      </c>
+      <c r="G115" s="3">
+        <v>2</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+      <c r="E116" s="3">
+        <v>2</v>
+      </c>
+      <c r="F116" s="3">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1</v>
+      </c>
+      <c r="D117" s="3">
+        <v>1</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1</v>
+      </c>
+      <c r="F117" s="3">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3">
+        <v>2</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D118" s="3">
+        <v>2</v>
+      </c>
+      <c r="E118" s="3">
+        <v>2</v>
+      </c>
+      <c r="F118" s="3">
+        <v>2</v>
+      </c>
+      <c r="G118" s="3">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I118" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119" s="3">
+        <v>1</v>
+      </c>
+      <c r="D119" s="3">
+        <v>1</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3">
+        <v>1</v>
+      </c>
+      <c r="G119" s="3">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D120" s="3">
+        <v>4</v>
+      </c>
+      <c r="E120" s="3">
+        <v>3</v>
+      </c>
+      <c r="F120" s="3">
+        <v>2</v>
+      </c>
+      <c r="G120" s="3">
+        <v>3</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1</v>
+      </c>
+      <c r="D121" s="3">
+        <v>2</v>
+      </c>
+      <c r="E121" s="3">
+        <v>2</v>
+      </c>
+      <c r="F121" s="3">
+        <v>2</v>
+      </c>
+      <c r="G121" s="3">
+        <v>2</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122" s="3">
+        <v>2</v>
+      </c>
+      <c r="D122" s="3">
+        <v>3</v>
+      </c>
+      <c r="E122" s="3">
+        <v>2</v>
+      </c>
+      <c r="F122" s="3">
+        <v>2</v>
+      </c>
+      <c r="G122" s="3">
+        <v>3</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I122" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/color/comparison_color.xlsx
+++ b/color/comparison_color.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b95324ec1dbd516d/Dokumenty/GitHub/G/color/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franciscomoreno/Documents/GitHub/G/color/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="697" documentId="8_{E4594A22-AFE3-454B-A66C-71E7CD8BEF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BD2D1C9-3135-4DF6-ADD9-F8E3051B857E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5FCF32-3814-3D49-941A-613370471A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{8DDA7121-79A4-441C-B316-0237A835ED06}"/>
+    <workbookView xWindow="2360" yWindow="760" windowWidth="26980" windowHeight="16060" xr2:uid="{8DDA7121-79A4-441C-B316-0237A835ED06}"/>
   </bookViews>
   <sheets>
     <sheet name="RGB" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -570,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -584,7 +584,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,7 +604,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -641,7 +640,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>matches with computer</a:t>
+              <a:t>RGB matches with computer</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -672,7 +671,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -682,10 +681,7 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -700,7 +696,9 @@
         <c:dLbl>
           <c:idx val="0"/>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -725,7 +723,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-PT"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="inEnd"/>
@@ -744,7 +742,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent5">
+            <a:schemeClr val="accent3">
               <a:lumMod val="60000"/>
               <a:lumOff val="40000"/>
             </a:schemeClr>
@@ -761,10 +759,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -778,10 +773,7 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -812,10 +804,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </c:spPr>
           <c:dPt>
@@ -823,10 +812,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -846,7 +832,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
@@ -869,10 +855,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -889,7 +872,9 @@
           </c:dPt>
           <c:dLbls>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -914,7 +899,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -1031,7 +1016,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1068,7 +1053,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1098,7 +1083,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1168,7 +1153,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1196,8 +1181,8 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
                 <a:alpha val="70000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -1604,7 +1589,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
                 <a:alpha val="70000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -2048,7 +2034,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="257194224"/>
@@ -2107,7 +2093,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="257192784"/>
@@ -2150,7 +2136,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2187,7 +2173,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2201,7 +2187,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2281,7 +2267,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2331,7 +2317,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-PT"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2494,7 +2480,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-PT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2607,7 +2593,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2644,7 +2630,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4420,10 +4406,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aniela Ciecierska" refreshedDate="45412.496153356478" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="123" xr:uid="{00652502-6991-4803-A709-A5A0A02AFFE2}">
   <cacheSource type="worksheet">
@@ -5214,7 +5196,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B10D5E8-C9DE-4F4B-96B3-176F4A0267FF}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B10D5E8-C9DE-4F4B-96B3-176F4A0267FF}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="K10:L14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -5309,7 +5291,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8D1C5C6-2CDE-4FFB-98B5-A6637A4DB2F5}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8D1C5C6-2CDE-4FFB-98B5-A6637A4DB2F5}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K3:L7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -5675,26 +5657,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D519F41-A112-4A68-AC6F-405E518203B9}">
   <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="H9" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="3"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="3"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -5726,7 +5708,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5760,7 +5742,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5794,7 +5776,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5828,7 +5810,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5862,7 +5844,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5894,7 +5876,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5926,7 +5908,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5958,7 +5940,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5989,7 +5971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6026,7 +6008,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6063,7 +6045,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6100,7 +6082,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6134,7 +6116,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -6171,7 +6153,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -6202,7 +6184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -6233,7 +6215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -6264,7 +6246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -6295,7 +6277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -6326,7 +6308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -6357,7 +6339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -6388,7 +6370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -6419,7 +6401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -6450,7 +6432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -6481,7 +6463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -6512,7 +6494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -6543,7 +6525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -6574,7 +6556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -6605,7 +6587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -6636,7 +6618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -6667,7 +6649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -6698,7 +6680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -6729,7 +6711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -6760,7 +6742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -6791,7 +6773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -6822,7 +6804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -6853,7 +6835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -6884,7 +6866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -6915,7 +6897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -6946,7 +6928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -6977,7 +6959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -7008,7 +6990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -7039,7 +7021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -7070,7 +7052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -7101,7 +7083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -7132,7 +7114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -7163,7 +7145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -7194,7 +7176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -7225,7 +7207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -7256,7 +7238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -7287,7 +7269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -7318,7 +7300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -7349,7 +7331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -7380,7 +7362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -7411,7 +7393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -7442,7 +7424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -7473,7 +7455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -7504,7 +7486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -7535,7 +7517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -7566,7 +7548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -7597,7 +7579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -7628,7 +7610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -7659,7 +7641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -7690,7 +7672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -7721,7 +7703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -7752,7 +7734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -7783,7 +7765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -7814,7 +7796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -7845,7 +7827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -7876,7 +7858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -7907,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -7938,7 +7920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -7969,7 +7951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -8000,7 +7982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -8031,7 +8013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -8062,7 +8044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -8093,7 +8075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -8124,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -8155,7 +8137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -8186,7 +8168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -8217,7 +8199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -8248,7 +8230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -8279,7 +8261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -8310,7 +8292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -8341,7 +8323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -8372,7 +8354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -8403,7 +8385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -8434,7 +8416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -8465,7 +8447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -8496,7 +8478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -8527,7 +8509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -8558,7 +8540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -8589,7 +8571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -8620,7 +8602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -8651,7 +8633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -8682,7 +8664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -8713,7 +8695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -8744,7 +8726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -8775,7 +8757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -8806,7 +8788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -8837,7 +8819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -8868,7 +8850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -8899,7 +8881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -8930,7 +8912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -8961,7 +8943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -8992,7 +8974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -9023,7 +9005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -9054,7 +9036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -9085,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -9116,7 +9098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -9147,7 +9129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -9178,7 +9160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -9209,7 +9191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -9240,7 +9222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -9271,7 +9253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -9302,7 +9284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -9333,7 +9315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -9364,7 +9346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -9395,7 +9377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -9426,7 +9408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -9457,7 +9439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -9488,7 +9470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -9519,7 +9501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -9560,20 +9542,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62DA70A-E24F-4FE0-A9F1-737D02A22E2B}">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C5" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9604,7 +9586,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9635,7 +9617,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9672,7 +9654,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9705,11 +9687,11 @@
       <c r="K4" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9742,11 +9724,11 @@
       <c r="K5" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9779,9 +9761,8 @@
       <c r="K6" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9814,11 +9795,11 @@
       <c r="K7" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9849,7 +9830,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9880,7 +9861,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9911,7 +9892,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -9942,7 +9923,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9973,7 +9954,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -10004,7 +9985,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -10035,7 +10016,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -10066,7 +10047,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -10097,7 +10078,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -10128,7 +10109,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -10159,7 +10140,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -10190,7 +10171,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -10221,7 +10202,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -10252,7 +10233,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -10283,7 +10264,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -10314,7 +10295,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -10345,7 +10326,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -10376,7 +10357,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -10407,7 +10388,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -10438,7 +10419,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -10469,7 +10450,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -10500,7 +10481,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -10531,7 +10512,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -10562,7 +10543,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -10593,7 +10574,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -10624,7 +10605,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -10655,7 +10636,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -10686,7 +10667,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -10717,7 +10698,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -10748,7 +10729,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -10779,7 +10760,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -10810,7 +10791,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -10841,7 +10822,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -10872,7 +10853,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -10903,7 +10884,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -10934,7 +10915,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -10965,7 +10946,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -10996,7 +10977,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -11027,7 +11008,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -11058,7 +11039,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -11089,7 +11070,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -11120,7 +11101,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -11151,7 +11132,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -11182,7 +11163,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -11213,7 +11194,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -11244,7 +11225,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -11275,7 +11256,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -11306,7 +11287,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -11337,7 +11318,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -11368,7 +11349,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -11399,7 +11380,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -11430,7 +11411,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -11461,7 +11442,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -11492,7 +11473,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -11523,7 +11504,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -11554,7 +11535,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -11585,7 +11566,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -11616,7 +11597,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -11647,7 +11628,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -11678,7 +11659,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -11709,7 +11690,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -11740,7 +11721,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -11771,7 +11752,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -11802,7 +11783,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -11833,7 +11814,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -11864,7 +11845,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -11895,7 +11876,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -11926,7 +11907,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -11957,7 +11938,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -11988,7 +11969,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -12019,7 +12000,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -12050,7 +12031,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -12081,7 +12062,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -12112,7 +12093,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -12143,7 +12124,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -12174,7 +12155,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -12205,7 +12186,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -12236,7 +12217,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -12267,7 +12248,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -12298,7 +12279,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -12329,7 +12310,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -12360,7 +12341,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -12391,7 +12372,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -12422,7 +12403,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -12453,7 +12434,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -12484,7 +12465,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -12515,7 +12496,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -12546,7 +12527,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -12577,7 +12558,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -12608,7 +12589,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -12639,7 +12620,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -12670,7 +12651,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -12701,7 +12682,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -12732,7 +12713,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -12763,7 +12744,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -12794,7 +12775,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -12825,7 +12806,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -12856,7 +12837,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -12887,7 +12868,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -12918,7 +12899,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -12949,7 +12930,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -12980,7 +12961,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -13011,7 +12992,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -13042,7 +13023,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -13073,7 +13054,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -13104,7 +13085,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -13135,7 +13116,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -13166,7 +13147,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -13197,7 +13178,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -13228,7 +13209,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -13259,7 +13240,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -13290,7 +13271,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -13321,7 +13302,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -13352,7 +13333,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>

--- a/color/comparison_color.xlsx
+++ b/color/comparison_color.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franciscomoreno/Documents/GitHub/G/color/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b95324ec1dbd516d/Dokumenty/GitHub/G/color/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5FCF32-3814-3D49-941A-613370471A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="760" windowWidth="26980" windowHeight="16060" xr2:uid="{8DDA7121-79A4-441C-B316-0237A835ED06}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{8DDA7121-79A4-441C-B316-0237A835ED06}"/>
   </bookViews>
   <sheets>
     <sheet name="RGB" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -604,7 +604,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -671,7 +671,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-PT"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -723,7 +723,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-PT"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="inEnd"/>
@@ -899,7 +899,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-PT"/>
+                <a:endParaRPr lang="pl-PL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -1016,7 +1016,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-PT"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1053,7 +1053,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-PT"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1083,7 +1083,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1153,7 +1153,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-PT"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2034,7 +2034,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-PT"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="257194224"/>
@@ -2093,7 +2093,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-PT"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="257192784"/>
@@ -2136,7 +2136,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-PT"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2173,7 +2173,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-PT"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2187,7 +2187,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2267,7 +2267,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-PT"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2317,7 +2317,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-PT"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2480,7 +2480,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-PT"/>
+                <a:endParaRPr lang="pl-PL"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2593,7 +2593,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-PT"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2630,7 +2630,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-PT"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5196,7 +5196,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B10D5E8-C9DE-4F4B-96B3-176F4A0267FF}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B10D5E8-C9DE-4F4B-96B3-176F4A0267FF}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="K10:L14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -5291,7 +5291,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8D1C5C6-2CDE-4FFB-98B5-A6637A4DB2F5}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8D1C5C6-2CDE-4FFB-98B5-A6637A4DB2F5}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K3:L7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -5657,26 +5657,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D519F41-A112-4A68-AC6F-405E518203B9}">
   <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H9" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="3"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="3"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -9546,16 +9546,16 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -12000,7 +12000,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -12961,7 +12961,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -13271,7 +13271,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>

--- a/color/comparison_color.xlsx
+++ b/color/comparison_color.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5FCF32-3814-3D49-941A-613370471A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{8DDA7121-79A4-441C-B316-0237A835ED06}"/>
+    <workbookView xWindow="6660" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{8DDA7121-79A4-441C-B316-0237A835ED06}"/>
   </bookViews>
   <sheets>
     <sheet name="RGB" sheetId="1" r:id="rId1"/>
@@ -5658,7 +5658,7 @@
   <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B123"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
